--- a/docs/线束表转化.xlsx
+++ b/docs/线束表转化.xlsx
@@ -3,26 +3,37 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE7F888-3C58-4C13-95D4-BA778CED8C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28657B10-2254-4FC8-82B0-DAA9CB203776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="线束表转化" sheetId="2" r:id="rId1"/>
     <sheet name="线束辅料" sheetId="6" r:id="rId2"/>
-    <sheet name="原缆清单" sheetId="7" r:id="rId3"/>
+    <sheet name="原缆清单" sheetId="8" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="540">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -616,10 +627,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DFB00052121</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电缆_3x0.34 LiHCH 70°C 250V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -648,10 +655,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>屏蔽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3G1.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -708,10 +711,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>屏蔽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4G1.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -829,10 +828,6 @@
   </si>
   <si>
     <t>电缆 7X1,0MM2 LIHCH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>屏蔽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1290,10 +1285,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>250V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>＞401V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1474,10 +1465,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>屏蔽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>H07BN-F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1498,14 +1485,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电缆_ÖLFLEX CLASS 110CY,2G0.75</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1648,10 +1627,6 @@
     <t>电力系统三相交流电压：10kV；(20kV；) 35kV；66kV；110kV；220kV；330kV；500kV；750kV；1000kV；</t>
   </si>
   <si>
-    <t>300/500V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>动力类电缆：0.6/1kV; 1.8/3kV;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1668,10 +1643,6 @@
   </si>
   <si>
     <t>66kV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401V-1000V(U18)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2269,10 +2240,6 @@
   </si>
   <si>
     <t>3G1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3G1.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2338,12 +2305,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DFB0005214X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>51V-400V(U17),401V-1000V(U18)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热缩管_D9,5/4,8</t>
   </si>
 </sst>
 </file>
@@ -2750,11 +2716,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2842,12 +2807,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2855,23 +2815,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2899,11 +2855,17 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -4760,7 +4722,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{079F2861-A9BA-4CCA-AA62-C7DC68EB4518}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4776,7 +4738,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15354300" y="3933825"/>
+          <a:off x="14211300" y="3933825"/>
           <a:ext cx="3942857" cy="1933333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5054,8 +5016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A10" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5065,982 +5027,983 @@
     <col min="3" max="3" width="28.375" customWidth="1"/>
     <col min="4" max="4" width="7.625" customWidth="1"/>
     <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="36" customWidth="1"/>
+    <col min="6" max="6" width="49.375" customWidth="1"/>
     <col min="7" max="7" width="28.75" customWidth="1"/>
     <col min="8" max="8" width="9.875" customWidth="1"/>
     <col min="9" max="9" width="18.125" customWidth="1"/>
     <col min="10" max="10" width="20.625" customWidth="1"/>
-    <col min="11" max="11" width="9.125" customWidth="1"/>
+    <col min="11" max="11" width="18.25" customWidth="1"/>
     <col min="12" max="12" width="26.125" customWidth="1"/>
+    <col min="14" max="14" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-    </row>
-    <row r="2" spans="1:14" ht="82.5">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+    </row>
+    <row r="2" spans="1:14" ht="49.5">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="82.5">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:14" ht="49.5">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16.5">
+      <c r="A10" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="F10" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="G10" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="H10" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="I10" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="J10" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="4" t="s">
+      <c r="K10" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="M10" s="51" t="s">
+        <v>462</v>
+      </c>
+      <c r="N10" s="51"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.5">
+      <c r="A11" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="M11" s="51" t="s">
+        <v>467</v>
+      </c>
+      <c r="N11" s="51"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.5">
+      <c r="A12" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="M12" s="51" t="s">
+        <v>472</v>
+      </c>
+      <c r="N12" s="51"/>
+    </row>
+    <row r="13" spans="1:14" ht="16.5">
+      <c r="A13" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="M13" s="51" t="s">
         <v>392</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="16.5">
-      <c r="A10" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="N13" s="51"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5">
+      <c r="A14" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="M14" s="51" t="s">
+        <v>392</v>
+      </c>
+      <c r="N14" s="51"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.5">
+      <c r="A15" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="M15" s="51" t="s">
+        <v>392</v>
+      </c>
+      <c r="N15" s="51"/>
+    </row>
+    <row r="16" spans="1:14" ht="16.5">
+      <c r="A16" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="K10" s="13" t="s">
+      <c r="I16" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="M16" s="51" t="s">
+        <v>392</v>
+      </c>
+      <c r="N16" s="51"/>
+    </row>
+    <row r="17" spans="1:14" ht="16.5">
+      <c r="A17" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="M10" s="56" t="s">
-        <v>472</v>
-      </c>
-      <c r="N10" s="56"/>
-    </row>
-    <row r="11" spans="1:14" ht="16.5">
-      <c r="A11" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="F17" s="7"/>
+      <c r="G17" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="M17" s="51" t="s">
+        <v>392</v>
+      </c>
+      <c r="N17" s="51"/>
+    </row>
+    <row r="18" spans="1:14" ht="16.5">
+      <c r="A18" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="M18" s="51" t="s">
+        <v>491</v>
+      </c>
+      <c r="N18" s="51"/>
+    </row>
+    <row r="19" spans="1:14" ht="16.5">
+      <c r="A19" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="M19" s="51" t="s">
+        <v>493</v>
+      </c>
+      <c r="N19" s="51"/>
+    </row>
+    <row r="20" spans="1:14" ht="16.5">
+      <c r="A20" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="M20" s="51" t="s">
+        <v>426</v>
+      </c>
+      <c r="N20" s="51"/>
+    </row>
+    <row r="21" spans="1:14" ht="16.5">
+      <c r="A21" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="J21" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M11" s="56" t="s">
-        <v>477</v>
-      </c>
-      <c r="N11" s="56"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5">
-      <c r="A12" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="M12" s="56" t="s">
-        <v>482</v>
-      </c>
-      <c r="N12" s="56"/>
-    </row>
-    <row r="13" spans="1:14" ht="16.5">
-      <c r="A13" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="I13" s="11" t="s">
+      <c r="K21" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="M21" s="51" t="s">
+        <v>499</v>
+      </c>
+      <c r="N21" s="51"/>
+    </row>
+    <row r="22" spans="1:14" ht="16.5">
+      <c r="A22" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="M22" s="51" t="s">
+        <v>426</v>
+      </c>
+      <c r="N22" s="51"/>
+    </row>
+    <row r="23" spans="1:14" ht="16.5">
+      <c r="A23" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="J23" s="11"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="M23" s="51" t="s">
+        <v>426</v>
+      </c>
+      <c r="N23" s="51"/>
+    </row>
+    <row r="24" spans="1:14" ht="16.5">
+      <c r="A24" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="M13" s="56" t="s">
+      <c r="F24" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="M24" s="51" t="s">
+        <v>505</v>
+      </c>
+      <c r="N24" s="51"/>
+    </row>
+    <row r="25" spans="1:14" ht="16.5">
+      <c r="A25" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="M25" s="51" t="s">
+        <v>426</v>
+      </c>
+      <c r="N25" s="51"/>
+    </row>
+    <row r="26" spans="1:14" ht="16.5">
+      <c r="A26" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="I26" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="N13" s="56"/>
-    </row>
-    <row r="14" spans="1:14" ht="16.5">
-      <c r="A14" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="M14" s="56" t="s">
-        <v>402</v>
-      </c>
-      <c r="N14" s="56"/>
-    </row>
-    <row r="15" spans="1:14" ht="16.5">
-      <c r="A15" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>490</v>
-      </c>
-      <c r="M15" s="56" t="s">
-        <v>402</v>
-      </c>
-      <c r="N15" s="56"/>
-    </row>
-    <row r="16" spans="1:14" ht="16.5">
-      <c r="A16" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="H16" s="10" t="s">
+      <c r="J26" s="11"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="M26" s="51" t="s">
         <v>426</v>
       </c>
-      <c r="I16" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>490</v>
-      </c>
-      <c r="M16" s="56" t="s">
-        <v>402</v>
-      </c>
-      <c r="N16" s="56"/>
-    </row>
-    <row r="17" spans="1:14" ht="16.5">
-      <c r="A17" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>495</v>
-      </c>
-      <c r="M17" s="56" t="s">
-        <v>402</v>
-      </c>
-      <c r="N17" s="56"/>
-    </row>
-    <row r="18" spans="1:14" ht="16.5">
-      <c r="A18" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>500</v>
-      </c>
-      <c r="M18" s="56" t="s">
-        <v>501</v>
-      </c>
-      <c r="N18" s="56"/>
-    </row>
-    <row r="19" spans="1:14" ht="16.5">
-      <c r="A19" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="M19" s="56" t="s">
-        <v>503</v>
-      </c>
-      <c r="N19" s="56"/>
-    </row>
-    <row r="20" spans="1:14" ht="16.5">
-      <c r="A20" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="14" t="s">
-        <v>506</v>
-      </c>
-      <c r="M20" s="56" t="s">
-        <v>436</v>
-      </c>
-      <c r="N20" s="56"/>
-    </row>
-    <row r="21" spans="1:14" ht="16.5">
-      <c r="A21" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="M21" s="56" t="s">
-        <v>509</v>
-      </c>
-      <c r="N21" s="56"/>
-    </row>
-    <row r="22" spans="1:14" ht="16.5">
-      <c r="A22" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="M22" s="56" t="s">
-        <v>436</v>
-      </c>
-      <c r="N22" s="56"/>
-    </row>
-    <row r="23" spans="1:14" ht="16.5">
-      <c r="A23" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="M23" s="56" t="s">
-        <v>436</v>
-      </c>
-      <c r="N23" s="56"/>
-    </row>
-    <row r="24" spans="1:14" ht="16.5">
-      <c r="A24" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="M24" s="56" t="s">
-        <v>515</v>
-      </c>
-      <c r="N24" s="56"/>
-    </row>
-    <row r="25" spans="1:14" ht="16.5">
-      <c r="A25" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="M25" s="56" t="s">
-        <v>436</v>
-      </c>
-      <c r="N25" s="56"/>
-    </row>
-    <row r="26" spans="1:14" ht="16.5">
-      <c r="A26" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="J26" s="12"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="14" t="s">
-        <v>519</v>
-      </c>
-      <c r="M26" s="56" t="s">
-        <v>436</v>
-      </c>
-      <c r="N26" s="56"/>
+      <c r="N26" s="51"/>
     </row>
     <row r="28" spans="1:14">
       <c r="F28" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="16.5">
-      <c r="A29" s="55" t="s">
-        <v>522</v>
+      <c r="A29" s="50" t="s">
+        <v>512</v>
       </c>
       <c r="D29" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="G29" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="G30" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="16.5">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="23" t="s">
         <v>67</v>
       </c>
       <c r="B32" s="1"/>
@@ -6056,381 +6019,382 @@
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" ht="19.5">
-      <c r="A33" s="36">
+      <c r="A33" s="35">
         <v>1</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="67"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="37">
+        <v>1</v>
+      </c>
+      <c r="H33" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" s="17"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="16"/>
+    </row>
+    <row r="34" spans="1:12" ht="19.5">
+      <c r="A34" s="36">
+        <v>2</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="58"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" s="17"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="16"/>
+    </row>
+    <row r="35" spans="1:12" ht="19.5">
+      <c r="A35" s="36">
+        <v>2</v>
+      </c>
+      <c r="B35" s="15" t="str">
+        <f>VLOOKUP(D35,线束辅料!C17:D21,2,FALSE)</f>
+        <v>DFB00046722</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>539</v>
+      </c>
+      <c r="E35" s="58"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="H35" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" s="17"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="16"/>
+    </row>
+    <row r="36" spans="1:12" ht="19.5">
+      <c r="A36" s="36">
+        <v>2</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="57" t="s">
         <v>297</v>
       </c>
-      <c r="C33" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="59"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="38">
+      <c r="E36" s="58"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="38">
         <v>1</v>
       </c>
-      <c r="H33" s="40" t="s">
+      <c r="H36" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="17"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="16"/>
+    </row>
+    <row r="37" spans="1:12" ht="18.600000000000001" customHeight="1">
+      <c r="A37" s="36"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="60" t="s">
+        <v>535</v>
+      </c>
+      <c r="E37" s="61"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="16"/>
+    </row>
+    <row r="38" spans="1:12" ht="18.600000000000001" customHeight="1">
+      <c r="A38" s="36"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="16"/>
+    </row>
+    <row r="39" spans="1:12" ht="19.5">
+      <c r="A39" s="36">
+        <v>2</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="58"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="38">
+        <v>1</v>
+      </c>
+      <c r="H39" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="I33" s="18"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="17"/>
-    </row>
-    <row r="34" spans="1:12" ht="19.5">
-      <c r="A34" s="37">
+      <c r="I39" s="17"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="16"/>
+    </row>
+    <row r="40" spans="1:12" ht="19.5">
+      <c r="A40" s="36">
         <v>2</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B40" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="58"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="K40" s="18"/>
+      <c r="L40" s="16"/>
+    </row>
+    <row r="41" spans="1:12" ht="19.5">
+      <c r="A41" s="36">
+        <v>2</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="58"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="38">
+        <v>1</v>
+      </c>
+      <c r="H41" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" s="17"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="16"/>
+    </row>
+    <row r="42" spans="1:12" ht="19.5">
+      <c r="A42" s="36">
+        <v>2</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="58"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="38">
+        <v>1</v>
+      </c>
+      <c r="H42" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="I42" s="17"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="16"/>
+    </row>
+    <row r="43" spans="1:12" ht="18.600000000000001" customHeight="1">
+      <c r="A43" s="36"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="60" t="s">
+        <v>536</v>
+      </c>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="16"/>
+    </row>
+    <row r="44" spans="1:12" ht="18.600000000000001" customHeight="1">
+      <c r="A44" s="36"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="16"/>
+    </row>
+    <row r="45" spans="1:12" ht="19.5">
+      <c r="A45" s="36">
+        <v>2</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="58"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="H45" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="I45" s="17"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="16"/>
+    </row>
+    <row r="46" spans="1:12" ht="19.5">
+      <c r="A46" s="36">
+        <v>2</v>
+      </c>
+      <c r="B46" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C46" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="62"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="57" t="s">
-        <v>545</v>
-      </c>
-      <c r="H34" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="I34" s="18"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="17"/>
-    </row>
-    <row r="35" spans="1:12" ht="19.5">
-      <c r="A35" s="37">
-        <v>2</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="62"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="20">
-        <v>0.04</v>
-      </c>
-      <c r="H35" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" s="18"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="17"/>
-    </row>
-    <row r="36" spans="1:12" ht="19.5">
-      <c r="A36" s="37">
-        <v>2</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="61" t="s">
-        <v>302</v>
-      </c>
-      <c r="E36" s="62"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="39">
-        <v>1</v>
-      </c>
-      <c r="H36" s="41" t="s">
+      <c r="D46" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" s="58"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="52">
+        <v>3</v>
+      </c>
+      <c r="H46" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="I36" s="18"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="17"/>
-    </row>
-    <row r="37" spans="1:12" ht="18.600000000000001" customHeight="1">
-      <c r="A37" s="37"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="64" t="s">
-        <v>546</v>
-      </c>
-      <c r="E37" s="65"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="17"/>
-    </row>
-    <row r="38" spans="1:12" ht="18.600000000000001" customHeight="1">
-      <c r="A38" s="37"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="17"/>
-    </row>
-    <row r="39" spans="1:12" ht="19.5">
-      <c r="A39" s="37">
-        <v>2</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="62"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="39">
-        <v>1</v>
-      </c>
-      <c r="H39" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="I39" s="18"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="17"/>
-    </row>
-    <row r="40" spans="1:12" ht="19.5">
-      <c r="A40" s="37">
-        <v>2</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="62"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="H40" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="I40" s="16" t="s">
-        <v>532</v>
-      </c>
-      <c r="K40" s="19"/>
-      <c r="L40" s="17"/>
-    </row>
-    <row r="41" spans="1:12" ht="19.5">
-      <c r="A41" s="37">
-        <v>2</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" s="62"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="39">
-        <v>1</v>
-      </c>
-      <c r="H41" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="I41" s="18"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="17"/>
-    </row>
-    <row r="42" spans="1:12" ht="19.5">
-      <c r="A42" s="37">
-        <v>2</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="62"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="39">
-        <v>1</v>
-      </c>
-      <c r="H42" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="I42" s="18"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="17"/>
-    </row>
-    <row r="43" spans="1:12" ht="18.600000000000001" customHeight="1">
-      <c r="A43" s="37"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="64" t="s">
-        <v>547</v>
-      </c>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="17"/>
-    </row>
-    <row r="44" spans="1:12" ht="18.600000000000001" customHeight="1">
-      <c r="A44" s="37"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="17"/>
-    </row>
-    <row r="45" spans="1:12" ht="19.5">
-      <c r="A45" s="37">
-        <v>2</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="E45" s="62"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="20">
-        <v>0.04</v>
-      </c>
-      <c r="H45" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="I45" s="18"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="17"/>
-    </row>
-    <row r="46" spans="1:12" ht="19.5">
-      <c r="A46" s="37">
-        <v>2</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="62"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="57">
-        <v>3</v>
-      </c>
-      <c r="H46" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="I46" s="18"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="16"/>
     </row>
     <row r="48" spans="1:12">
       <c r="B48" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="L48" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="B49" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="G49" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="H49" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G50" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="B52" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D52" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="I52" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="B53" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C53" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="I53" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -6441,7 +6405,7 @@
         <v>68</v>
       </c>
       <c r="F54" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -6449,19 +6413,24 @@
         <v>125</v>
       </c>
       <c r="C55" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="B56" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C56" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D39:F39"/>
     <mergeCell ref="D45:F45"/>
     <mergeCell ref="D46:F46"/>
     <mergeCell ref="D37:F38"/>
@@ -6469,11 +6438,6 @@
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="D42:F42"/>
     <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D39:F39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F4:F6">
@@ -6664,6 +6628,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{51871BBE-8C39-4CB3-966E-99478194D0A3}">
+          <x14:formula1>
+            <xm:f>线束辅料!$C$17:$C$21</xm:f>
+          </x14:formula1>
+          <xm:sqref>D35:F35</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6671,517 +6647,517 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="3" max="3" width="28.75" customWidth="1"/>
-    <col min="4" max="4" width="53.25" customWidth="1"/>
+    <col min="3" max="3" width="53.25" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
     <col min="5" max="5" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>313</v>
-      </c>
+      <c r="A1" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="46" t="s">
-        <v>304</v>
-      </c>
-      <c r="B2" s="45" t="s">
+      <c r="A2" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75">
+      <c r="A3" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="41">
+        <v>16</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.75">
+      <c r="A4" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" s="25">
+        <v>16</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18.75">
+      <c r="A5" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="B5" s="25">
+        <v>25</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18.75">
+      <c r="A6" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="B6" s="25">
+        <v>50</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75">
+      <c r="A7" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7" s="25">
+        <v>50</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18.75">
+      <c r="A8" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
         <v>303</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="I8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18.75">
+      <c r="A9" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.75">
+      <c r="A10" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18.75">
+      <c r="A11" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11" s="25">
+        <v>0.34</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.75">
+      <c r="A12" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18.75">
+      <c r="A13" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13" s="25">
+        <v>1</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="15">
+        <v>12024613</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18.75">
+      <c r="A14" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="B14" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18.75">
+      <c r="A15" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="B15" s="25">
+        <v>2.5</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18.75">
+      <c r="A16" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="B16" s="25">
+        <v>16</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:9" ht="18.75">
+      <c r="A17" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="F17" t="s">
+        <v>301</v>
+      </c>
+      <c r="H17" t="s">
+        <v>320</v>
+      </c>
+      <c r="I17" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18.75">
+      <c r="A18" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18.75">
+      <c r="A19" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18.75">
+      <c r="A20" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18.75">
+      <c r="A21" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18.75">
+      <c r="A22" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
         <v>300</v>
       </c>
-      <c r="D2" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.75">
-      <c r="A3" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="B3" s="42">
-        <v>0.34</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.75">
-      <c r="A4" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="B4" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="27" t="s">
+      <c r="H22" t="s">
+        <v>320</v>
+      </c>
+      <c r="I22" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18.75">
+      <c r="A23" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="I4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.75">
-      <c r="A5" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="B5" s="26">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16">
-        <v>12024613</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="27" t="s">
+      <c r="I23" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18.75">
+      <c r="A24" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="I5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.75">
-      <c r="A6" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="B6" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="27" t="s">
+    </row>
+    <row r="25" spans="1:9" ht="18.75">
+      <c r="A25" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>326</v>
+      </c>
+      <c r="D25" s="54"/>
+      <c r="E25" s="26" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18.75">
+      <c r="A26" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="26" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75">
-      <c r="A7" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="B7" s="26">
-        <v>2.5</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="27" t="s">
+      <c r="F26" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18.75">
+      <c r="A27" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="I7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75">
-      <c r="A8" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="B8" s="26">
-        <v>16</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.75">
-      <c r="A9" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="B9" s="26">
-        <v>16</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75">
-      <c r="A10" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="B10" s="26">
-        <v>16</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18.75">
-      <c r="A11" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="B11" s="26">
-        <v>25</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75">
-      <c r="A12" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="B12" s="26">
-        <v>50</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75">
-      <c r="A13" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="B13" s="26">
-        <v>50</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18.75">
-      <c r="A14" s="53" t="s">
-        <v>314</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>324</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" t="s">
-        <v>308</v>
-      </c>
-      <c r="I14" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18.75">
-      <c r="A15" s="53" t="s">
-        <v>314</v>
-      </c>
-      <c r="B15" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="18.75">
-      <c r="A16" s="53" t="s">
-        <v>314</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="47" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="18.75">
-      <c r="A17" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>316</v>
-      </c>
-      <c r="F17" t="s">
-        <v>306</v>
-      </c>
-      <c r="H17" t="s">
-        <v>325</v>
-      </c>
-      <c r="I17" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="18.75">
-      <c r="A18" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="18.75">
-      <c r="A19" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="18.75">
-      <c r="A20" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="18.75">
-      <c r="A21" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="18.75">
-      <c r="A22" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>307</v>
-      </c>
-      <c r="H22" t="s">
-        <v>325</v>
-      </c>
-      <c r="I22" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="18.75">
-      <c r="A23" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>525</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="18.75">
-      <c r="A24" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="18.75">
-      <c r="A25" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="18.75">
-      <c r="A26" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="18.75">
-      <c r="A27" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="C27" s="71" t="s">
-        <v>549</v>
-      </c>
-      <c r="D27" s="53" t="s">
-        <v>331</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>332</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F27">
+    <sortCondition ref="A8:A27"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7189,78 +7165,67 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I977"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487186A3-9D00-4197-A303-5F818918C0BB}">
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22" style="2" customWidth="1"/>
-    <col min="4" max="4" width="43.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="35.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="36.625" customWidth="1"/>
+    <col min="4" max="4" width="43.875" customWidth="1"/>
+    <col min="6" max="6" width="47.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
+      <c r="A1" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="48" t="s">
-        <v>304</v>
-      </c>
-      <c r="B2" s="48" t="s">
+      <c r="A2" s="46" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="48" t="s">
-        <v>301</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>291</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>318</v>
-      </c>
-      <c r="G2" s="48" t="s">
+      <c r="D2" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="G2" s="46" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C3" s="30" t="s">
+        <v>527</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>370</v>
+      <c r="E3" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>132</v>
@@ -7268,48 +7233,48 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B4" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>370</v>
+      <c r="E4" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H4" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="D5" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>370</v>
+      <c r="E5" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>132</v>
@@ -7317,114 +7282,114 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="C6" s="30" t="s">
+        <v>528</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>370</v>
+      <c r="E6" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>370</v>
+      <c r="E7" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>389</v>
+        <v>141</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>363</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="F9" s="49" t="s">
-        <v>370</v>
+      <c r="E9" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B10" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="F10" s="49" t="s">
-        <v>370</v>
+      <c r="E10" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>132</v>
@@ -7432,192 +7397,192 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="F11" s="49" t="s">
-        <v>370</v>
+      <c r="E11" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>370</v>
+        <v>155</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>309</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>370</v>
+      <c r="D13" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H13" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>370</v>
+        <v>159</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>370</v>
+        <v>162</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="I15" t="s">
-        <v>337</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="F16" s="49" t="s">
-        <v>370</v>
+        <v>165</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="I16" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>293</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>383</v>
-      </c>
-      <c r="F17" s="49" t="s">
-        <v>371</v>
+        <v>168</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>363</v>
       </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>294</v>
-      </c>
-      <c r="F18" s="49" t="s">
-        <v>370</v>
+        <v>170</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>132</v>
@@ -7625,43 +7590,43 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>294</v>
-      </c>
-      <c r="F19" s="49" t="s">
-        <v>370</v>
+        <v>173</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>383</v>
-      </c>
-      <c r="F20" s="54" t="s">
-        <v>550</v>
+        <v>176</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="F20" s="69" t="s">
+        <v>538</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>132</v>
@@ -7669,209 +7634,209 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>383</v>
-      </c>
-      <c r="F21" s="54" t="s">
-        <v>550</v>
+        <v>179</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="F21" s="69" t="s">
+        <v>538</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>294</v>
-      </c>
-      <c r="F22" s="49" t="s">
-        <v>370</v>
+        <v>182</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>294</v>
-      </c>
-      <c r="F23" s="49" t="s">
-        <v>370</v>
+        <v>185</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>294</v>
-      </c>
-      <c r="F24" s="49" t="s">
-        <v>370</v>
+        <v>188</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>383</v>
-      </c>
-      <c r="F25" s="54" t="s">
-        <v>550</v>
+        <v>191</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="F25" s="69" t="s">
+        <v>538</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="F26" s="49" t="s">
-        <v>370</v>
+        <v>194</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="I26" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="F27" s="49" t="s">
-        <v>370</v>
+        <v>197</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="F28" s="49" t="s">
-        <v>370</v>
+        <v>200</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="F29" s="49" t="s">
-        <v>370</v>
+        <v>203</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>132</v>
@@ -7879,134 +7844,138 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="F30" s="49" t="s">
-        <v>370</v>
+        <v>206</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H30" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="F31" s="49" t="s">
-        <v>370</v>
+        <v>209</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H31" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>216</v>
+        <v>335</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="31" t="s">
+        <v>212</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>217</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H32" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="50"/>
+        <v>335</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
       <c r="G33" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H33" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C34" s="30">
+        <v>216</v>
+      </c>
+      <c r="C34" s="29">
         <v>17003452</v>
       </c>
-      <c r="D34" s="31" t="s">
-        <v>221</v>
+      <c r="D34" s="30" t="s">
+        <v>217</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F34" s="49" t="s">
-        <v>372</v>
+        <v>380</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>364</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C35" s="30">
+        <v>216</v>
+      </c>
+      <c r="C35" s="29">
         <v>17009711</v>
       </c>
-      <c r="D35" s="31" t="s">
-        <v>222</v>
+      <c r="D35" s="30" t="s">
+        <v>218</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F35" s="49" t="s">
-        <v>372</v>
+        <v>380</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>364</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>132</v>
@@ -8014,22 +7983,22 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="30">
+        <v>219</v>
+      </c>
+      <c r="C36" s="29">
         <v>17003383</v>
       </c>
-      <c r="D36" s="31" t="s">
-        <v>345</v>
+      <c r="D36" s="30" t="s">
+        <v>337</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F36" s="49" t="s">
-        <v>372</v>
+        <v>380</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>364</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>132</v>
@@ -8037,195 +8006,195 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="29">
         <v>17003453</v>
       </c>
-      <c r="D37" s="31" t="s">
-        <v>224</v>
+      <c r="D37" s="30" t="s">
+        <v>220</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F37" s="49" t="s">
-        <v>372</v>
+        <v>380</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>364</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C38" s="30">
+        <v>221</v>
+      </c>
+      <c r="C38" s="29">
         <v>17010989</v>
       </c>
-      <c r="D38" s="31" t="s">
-        <v>226</v>
+      <c r="D38" s="30" t="s">
+        <v>222</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F38" s="49" t="s">
-        <v>372</v>
+        <v>380</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>364</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H38" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C39" s="30">
+        <v>223</v>
+      </c>
+      <c r="C39" s="29">
         <v>17004291</v>
       </c>
-      <c r="D39" s="31" t="s">
-        <v>346</v>
+      <c r="D39" s="30" t="s">
+        <v>338</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F39" s="49" t="s">
-        <v>372</v>
+        <v>380</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>364</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C40" s="30">
+        <v>223</v>
+      </c>
+      <c r="C40" s="29">
         <v>17010990</v>
       </c>
-      <c r="D40" s="31" t="s">
-        <v>228</v>
+      <c r="D40" s="30" t="s">
+        <v>224</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F40" s="49" t="s">
-        <v>372</v>
+        <v>380</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>364</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H40" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>231</v>
+        <v>225</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>227</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F41" s="49" t="s">
-        <v>372</v>
+        <v>380</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>364</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H41" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" s="30">
+        <v>135</v>
+      </c>
+      <c r="C42" s="29">
         <v>17003521</v>
       </c>
-      <c r="D42" s="31" t="s">
-        <v>347</v>
+      <c r="D42" s="30" t="s">
+        <v>339</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F42" s="49" t="s">
-        <v>372</v>
+        <v>380</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>364</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H42" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C43" s="30">
+        <v>228</v>
+      </c>
+      <c r="C43" s="29">
         <v>17003185</v>
       </c>
-      <c r="D43" s="31" t="s">
-        <v>348</v>
+      <c r="D43" s="30" t="s">
+        <v>340</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F43" s="49" t="s">
-        <v>372</v>
+        <v>380</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>364</v>
       </c>
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C44" s="30">
+        <v>138</v>
+      </c>
+      <c r="C44" s="29">
         <v>17003373</v>
       </c>
-      <c r="D44" s="31" t="s">
-        <v>233</v>
+      <c r="D44" s="30" t="s">
+        <v>229</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F44" s="49" t="s">
-        <v>371</v>
+        <v>359</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>363</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>132</v>
@@ -8233,22 +8202,22 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" s="30">
+        <v>141</v>
+      </c>
+      <c r="C45" s="29">
         <v>17003503</v>
       </c>
-      <c r="D45" s="31" t="s">
-        <v>349</v>
+      <c r="D45" s="30" t="s">
+        <v>341</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F45" s="49" t="s">
-        <v>371</v>
+        <v>359</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>363</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>132</v>
@@ -8256,43 +8225,43 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C46" s="30">
+        <v>146</v>
+      </c>
+      <c r="C46" s="29">
         <v>17003870</v>
       </c>
-      <c r="D46" s="31" t="s">
-        <v>234</v>
+      <c r="D46" s="30" t="s">
+        <v>230</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F46" s="49" t="s">
-        <v>371</v>
+        <v>359</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>363</v>
       </c>
       <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C47" s="30">
+        <v>146</v>
+      </c>
+      <c r="C47" s="29">
         <v>17003384</v>
       </c>
-      <c r="D47" s="31" t="s">
-        <v>235</v>
+      <c r="D47" s="30" t="s">
+        <v>231</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F47" s="49" t="s">
-        <v>371</v>
+        <v>359</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>363</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>132</v>
@@ -8300,85 +8269,85 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="D48" s="31" t="s">
-        <v>238</v>
+        <v>232</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>234</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F48" s="49" t="s">
-        <v>371</v>
+        <v>359</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>363</v>
       </c>
       <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C49" s="30">
+        <v>235</v>
+      </c>
+      <c r="C49" s="29">
         <v>17003497</v>
       </c>
-      <c r="D49" s="31" t="s">
-        <v>240</v>
+      <c r="D49" s="30" t="s">
+        <v>236</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F49" s="49" t="s">
-        <v>371</v>
+        <v>360</v>
+      </c>
+      <c r="F49" s="30" t="s">
+        <v>363</v>
       </c>
       <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="D50" s="30" t="s">
         <v>342</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="D50" s="31" t="s">
-        <v>350</v>
-      </c>
       <c r="E50" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F50" s="49" t="s">
-        <v>371</v>
+        <v>360</v>
+      </c>
+      <c r="F50" s="30" t="s">
+        <v>363</v>
       </c>
       <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C51" s="30">
+        <v>239</v>
+      </c>
+      <c r="C51" s="29">
         <v>17003520</v>
       </c>
-      <c r="D51" s="31" t="s">
-        <v>244</v>
+      <c r="D51" s="30" t="s">
+        <v>240</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="F51" s="54" t="s">
-        <v>550</v>
+        <v>361</v>
+      </c>
+      <c r="F51" s="69" t="s">
+        <v>538</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>132</v>
@@ -8386,43 +8355,43 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C52" s="30">
+        <v>155</v>
+      </c>
+      <c r="C52" s="29">
         <v>17003409</v>
       </c>
-      <c r="D52" s="31" t="s">
-        <v>351</v>
+      <c r="D52" s="30" t="s">
+        <v>343</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>391</v>
+        <v>376</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G52" s="2"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C53" s="30">
+        <v>155</v>
+      </c>
+      <c r="C53" s="29">
         <v>17003378</v>
       </c>
-      <c r="D53" s="31" t="s">
-        <v>352</v>
+      <c r="D53" s="30" t="s">
+        <v>344</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>391</v>
+        <v>376</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>132</v>
@@ -8430,43 +8399,43 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C54" s="30">
+        <v>159</v>
+      </c>
+      <c r="C54" s="29">
         <v>17003408</v>
       </c>
-      <c r="D54" s="31" t="s">
-        <v>245</v>
+      <c r="D54" s="30" t="s">
+        <v>241</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>391</v>
+        <v>376</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C55" s="30">
+        <v>159</v>
+      </c>
+      <c r="C55" s="29">
         <v>17003502</v>
       </c>
-      <c r="D55" s="31" t="s">
-        <v>246</v>
+      <c r="D55" s="30" t="s">
+        <v>242</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>391</v>
+        <v>376</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>132</v>
@@ -8474,127 +8443,127 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C56" s="30">
+        <v>162</v>
+      </c>
+      <c r="C56" s="29">
         <v>17003538</v>
       </c>
-      <c r="D56" s="31" t="s">
-        <v>247</v>
+      <c r="D56" s="30" t="s">
+        <v>243</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>391</v>
+        <v>376</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C57" s="30">
+        <v>162</v>
+      </c>
+      <c r="C57" s="29">
         <v>17003240</v>
       </c>
-      <c r="D57" s="31" t="s">
-        <v>353</v>
+      <c r="D57" s="30" t="s">
+        <v>345</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>391</v>
+        <v>376</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C58" s="30">
+        <v>244</v>
+      </c>
+      <c r="C58" s="29">
         <v>17003500</v>
       </c>
-      <c r="D58" s="31" t="s">
-        <v>354</v>
+      <c r="D58" s="30" t="s">
+        <v>346</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>391</v>
+        <v>376</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C59" s="30">
+        <v>245</v>
+      </c>
+      <c r="C59" s="29">
         <v>17003898</v>
       </c>
-      <c r="D59" s="31" t="s">
-        <v>355</v>
+      <c r="D59" s="30" t="s">
+        <v>347</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>391</v>
+        <v>376</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C60" s="30">
+        <v>246</v>
+      </c>
+      <c r="C60" s="29">
         <v>17003519</v>
       </c>
-      <c r="D60" s="31" t="s">
-        <v>251</v>
+      <c r="D60" s="30" t="s">
+        <v>247</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>391</v>
+        <v>376</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C61" s="30">
+        <v>246</v>
+      </c>
+      <c r="C61" s="29">
         <v>17010987</v>
       </c>
-      <c r="D61" s="31" t="s">
-        <v>252</v>
+      <c r="D61" s="30" t="s">
+        <v>248</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>391</v>
+        <v>376</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>132</v>
@@ -8602,22 +8571,22 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C62" s="30">
+        <v>249</v>
+      </c>
+      <c r="C62" s="29">
         <v>17003382</v>
       </c>
-      <c r="D62" s="31" t="s">
-        <v>356</v>
+      <c r="D62" s="30" t="s">
+        <v>348</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>391</v>
+        <v>376</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>132</v>
@@ -8625,22 +8594,22 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C63" s="30">
+        <v>170</v>
+      </c>
+      <c r="C63" s="29">
         <v>17003379</v>
       </c>
-      <c r="D63" s="31" t="s">
-        <v>254</v>
+      <c r="D63" s="30" t="s">
+        <v>250</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>391</v>
+        <v>376</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>132</v>
@@ -8648,43 +8617,43 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C64" s="30">
+        <v>170</v>
+      </c>
+      <c r="C64" s="29">
         <v>17003227</v>
       </c>
-      <c r="D64" s="31" t="s">
-        <v>255</v>
+      <c r="D64" s="30" t="s">
+        <v>251</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>391</v>
+        <v>376</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C65" s="30">
+        <v>173</v>
+      </c>
+      <c r="C65" s="29">
         <v>17003376</v>
       </c>
-      <c r="D65" s="31" t="s">
-        <v>256</v>
+      <c r="D65" s="30" t="s">
+        <v>252</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>391</v>
+        <v>376</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>132</v>
@@ -8692,22 +8661,22 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C66" s="30">
+        <v>176</v>
+      </c>
+      <c r="C66" s="29">
         <v>17003374</v>
       </c>
-      <c r="D66" s="31" t="s">
-        <v>357</v>
+      <c r="D66" s="30" t="s">
+        <v>349</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>391</v>
+        <v>376</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>132</v>
@@ -8715,43 +8684,43 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C67" s="30">
+        <v>253</v>
+      </c>
+      <c r="C67" s="29">
         <v>17004076</v>
       </c>
-      <c r="D67" s="31" t="s">
-        <v>258</v>
+      <c r="D67" s="30" t="s">
+        <v>254</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>391</v>
+        <v>376</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C68" s="30">
+        <v>179</v>
+      </c>
+      <c r="C68" s="29">
         <v>17003505</v>
       </c>
-      <c r="D68" s="31" t="s">
-        <v>366</v>
+      <c r="D68" s="30" t="s">
+        <v>358</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>391</v>
+        <v>376</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>132</v>
@@ -8759,106 +8728,106 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C69" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="D69" s="31" t="s">
-        <v>260</v>
+        <v>179</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>256</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>391</v>
+        <v>377</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C70" s="30">
+        <v>257</v>
+      </c>
+      <c r="C70" s="29">
         <v>17003390</v>
       </c>
-      <c r="D70" s="31" t="s">
-        <v>262</v>
+      <c r="D70" s="30" t="s">
+        <v>258</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>391</v>
+        <v>377</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C71" s="30">
+        <v>257</v>
+      </c>
+      <c r="C71" s="29">
         <v>17003403</v>
       </c>
-      <c r="D71" s="31" t="s">
-        <v>358</v>
+      <c r="D71" s="30" t="s">
+        <v>350</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>391</v>
+        <v>377</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C72" s="30">
+        <v>259</v>
+      </c>
+      <c r="C72" s="29">
         <v>17003875</v>
       </c>
-      <c r="D72" s="31" t="s">
-        <v>264</v>
+      <c r="D72" s="30" t="s">
+        <v>260</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>391</v>
+        <v>377</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C73" s="30">
+        <v>261</v>
+      </c>
+      <c r="C73" s="29">
         <v>17003522</v>
       </c>
-      <c r="D73" s="31" t="s">
-        <v>359</v>
+      <c r="D73" s="30" t="s">
+        <v>351</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>391</v>
+        <v>377</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>132</v>
@@ -8866,43 +8835,43 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C74" s="30">
+        <v>182</v>
+      </c>
+      <c r="C74" s="29">
         <v>17003584</v>
       </c>
-      <c r="D74" s="31" t="s">
-        <v>360</v>
+      <c r="D74" s="30" t="s">
+        <v>352</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>391</v>
+        <v>377</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C75" s="30">
+        <v>182</v>
+      </c>
+      <c r="C75" s="29">
         <v>17003863</v>
       </c>
-      <c r="D75" s="31" t="s">
-        <v>266</v>
+      <c r="D75" s="30" t="s">
+        <v>262</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>391</v>
+        <v>377</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>132</v>
@@ -8910,22 +8879,22 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C76" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="D76" s="31" t="s">
-        <v>268</v>
+        <v>185</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>264</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>391</v>
+        <v>377</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>132</v>
@@ -8933,22 +8902,22 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C77" s="30">
+        <v>188</v>
+      </c>
+      <c r="C77" s="29">
         <v>17003371</v>
       </c>
-      <c r="D77" s="31" t="s">
-        <v>361</v>
+      <c r="D77" s="30" t="s">
+        <v>353</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>391</v>
+        <v>377</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>132</v>
@@ -8956,22 +8925,22 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C78" s="30">
+        <v>191</v>
+      </c>
+      <c r="C78" s="29">
         <v>17003381</v>
       </c>
-      <c r="D78" s="31" t="s">
-        <v>269</v>
+      <c r="D78" s="30" t="s">
+        <v>265</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>391</v>
+        <v>377</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>132</v>
@@ -8979,43 +8948,43 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C79" s="30">
+        <v>266</v>
+      </c>
+      <c r="C79" s="29">
         <v>17003216</v>
       </c>
-      <c r="D79" s="31" t="s">
-        <v>362</v>
+      <c r="D79" s="30" t="s">
+        <v>354</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>391</v>
+        <v>377</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C80" s="30">
+        <v>266</v>
+      </c>
+      <c r="C80" s="29">
         <v>17003595</v>
       </c>
-      <c r="D80" s="31" t="s">
-        <v>271</v>
+      <c r="D80" s="30" t="s">
+        <v>267</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>391</v>
+        <v>377</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>132</v>
@@ -9023,22 +8992,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C81" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="D81" s="31" t="s">
-        <v>273</v>
+        <v>268</v>
+      </c>
+      <c r="C81" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>269</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>391</v>
+        <v>377</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>132</v>
@@ -9046,22 +9015,22 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C82" s="30">
+        <v>270</v>
+      </c>
+      <c r="C82" s="29">
         <v>17009664</v>
       </c>
-      <c r="D82" s="31" t="s">
-        <v>363</v>
+      <c r="D82" s="30" t="s">
+        <v>355</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>391</v>
+        <v>378</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>132</v>
@@ -9069,43 +9038,43 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C83" s="30">
+        <v>271</v>
+      </c>
+      <c r="C83" s="29">
         <v>17003583</v>
       </c>
-      <c r="D83" s="31" t="s">
-        <v>276</v>
+      <c r="D83" s="30" t="s">
+        <v>272</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>391</v>
+        <v>378</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G83" s="2"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C84" s="30">
+        <v>271</v>
+      </c>
+      <c r="C84" s="29">
         <v>17010988</v>
       </c>
-      <c r="D84" s="31" t="s">
-        <v>277</v>
+      <c r="D84" s="30" t="s">
+        <v>273</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>391</v>
+        <v>378</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>132</v>
@@ -9113,22 +9082,22 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C85" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="D85" s="31" t="s">
-        <v>364</v>
+        <v>274</v>
+      </c>
+      <c r="C85" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>356</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>391</v>
+        <v>378</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>132</v>
@@ -9136,22 +9105,22 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C86" s="30">
+        <v>275</v>
+      </c>
+      <c r="C86" s="29">
         <v>17004265</v>
       </c>
-      <c r="D86" s="31" t="s">
-        <v>280</v>
+      <c r="D86" s="30" t="s">
+        <v>276</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>391</v>
+        <v>378</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>132</v>
@@ -9159,22 +9128,22 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C87" s="30">
+        <v>277</v>
+      </c>
+      <c r="C87" s="29">
         <v>17003504</v>
       </c>
-      <c r="D87" s="31" t="s">
-        <v>282</v>
+      <c r="D87" s="30" t="s">
+        <v>278</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>391</v>
+        <v>378</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>132</v>
@@ -9182,22 +9151,22 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C88" s="30">
+        <v>279</v>
+      </c>
+      <c r="C88" s="29">
         <v>17003523</v>
       </c>
-      <c r="D88" s="31" t="s">
-        <v>284</v>
+      <c r="D88" s="30" t="s">
+        <v>280</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>391</v>
+        <v>379</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>132</v>
@@ -9205,22 +9174,22 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C89" s="30">
+        <v>281</v>
+      </c>
+      <c r="C89" s="29">
         <v>17003518</v>
       </c>
-      <c r="D89" s="31" t="s">
-        <v>365</v>
+      <c r="D89" s="30" t="s">
+        <v>357</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>391</v>
+        <v>379</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>132</v>
@@ -9228,22 +9197,22 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C90" s="30">
+        <v>282</v>
+      </c>
+      <c r="C90" s="29">
         <v>17003385</v>
       </c>
-      <c r="D90" s="31" t="s">
-        <v>287</v>
+      <c r="D90" s="30" t="s">
+        <v>283</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>391</v>
+        <v>379</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>132</v>
@@ -9251,22 +9220,22 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C91" s="30">
+        <v>284</v>
+      </c>
+      <c r="C91" s="29">
         <v>17003184</v>
       </c>
-      <c r="D91" s="31" t="s">
-        <v>289</v>
+      <c r="D91" s="30" t="s">
+        <v>285</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>391</v>
+        <v>379</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>132</v>
@@ -9274,2687 +9243,43 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C92" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="D92" s="70" t="s">
-        <v>548</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="D92" s="53" t="s">
+        <v>537</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C93" s="30">
+        <v>336</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="29">
         <v>17003873</v>
       </c>
-      <c r="D93" s="31" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="2"/>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="2"/>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="2"/>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="2"/>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="2"/>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="2"/>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="2"/>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="2"/>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="2"/>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="2"/>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="2"/>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="2"/>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="2"/>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="2"/>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="2"/>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="2"/>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="2"/>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="2"/>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="2"/>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="2"/>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="2"/>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="2"/>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="2"/>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="2"/>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="2"/>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="2"/>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="2"/>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="2"/>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="2"/>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="2"/>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="2"/>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="2"/>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="2"/>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="2"/>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="2"/>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="2"/>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="2"/>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="2"/>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="2"/>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="2"/>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="2"/>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="2"/>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="2"/>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="2"/>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="2"/>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="2"/>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="2"/>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="2"/>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="2"/>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="2"/>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="2"/>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="2"/>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="2"/>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="2"/>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="2"/>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="2"/>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="2"/>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="2"/>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="2"/>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="2"/>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="2"/>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="2"/>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="2"/>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="2"/>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" s="2"/>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="2"/>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="2"/>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="2"/>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="2"/>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="2"/>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="2"/>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="2"/>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="2"/>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="2"/>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="2"/>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="2"/>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="2"/>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" s="2"/>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="2"/>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="2"/>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="2"/>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" s="2"/>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" s="2"/>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" s="2"/>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" s="2"/>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" s="2"/>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" s="2"/>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" s="2"/>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" s="2"/>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" s="2"/>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" s="2"/>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" s="2"/>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" s="2"/>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" s="2"/>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" s="2"/>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" s="2"/>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" s="2"/>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" s="2"/>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" s="2"/>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" s="2"/>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" s="2"/>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" s="2"/>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" s="2"/>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" s="2"/>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" s="2"/>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" s="2"/>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" s="2"/>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" s="2"/>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" s="2"/>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" s="2"/>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" s="2"/>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" s="2"/>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" s="2"/>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" s="2"/>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" s="2"/>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" s="2"/>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" s="2"/>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" s="2"/>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" s="2"/>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" s="2"/>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" s="2"/>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" s="2"/>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" s="2"/>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" s="2"/>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" s="2"/>
-    </row>
-    <row r="219" spans="1:1">
-      <c r="A219" s="2"/>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220" s="2"/>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" s="2"/>
-    </row>
-    <row r="222" spans="1:1">
-      <c r="A222" s="2"/>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" s="2"/>
-    </row>
-    <row r="224" spans="1:1">
-      <c r="A224" s="2"/>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" s="2"/>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" s="2"/>
-    </row>
-    <row r="227" spans="1:1">
-      <c r="A227" s="2"/>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228" s="2"/>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" s="2"/>
-    </row>
-    <row r="230" spans="1:1">
-      <c r="A230" s="2"/>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" s="2"/>
-    </row>
-    <row r="232" spans="1:1">
-      <c r="A232" s="2"/>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" s="2"/>
-    </row>
-    <row r="234" spans="1:1">
-      <c r="A234" s="2"/>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" s="2"/>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" s="2"/>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" s="2"/>
-    </row>
-    <row r="238" spans="1:1">
-      <c r="A238" s="2"/>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239" s="2"/>
-    </row>
-    <row r="240" spans="1:1">
-      <c r="A240" s="2"/>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" s="2"/>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" s="2"/>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" s="2"/>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" s="2"/>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" s="2"/>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" s="2"/>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" s="2"/>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" s="2"/>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" s="2"/>
-    </row>
-    <row r="250" spans="1:1">
-      <c r="A250" s="2"/>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" s="2"/>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252" s="2"/>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" s="2"/>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" s="2"/>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" s="2"/>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" s="2"/>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" s="2"/>
-    </row>
-    <row r="258" spans="1:1">
-      <c r="A258" s="2"/>
-    </row>
-    <row r="259" spans="1:1">
-      <c r="A259" s="2"/>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260" s="2"/>
-    </row>
-    <row r="261" spans="1:1">
-      <c r="A261" s="2"/>
-    </row>
-    <row r="262" spans="1:1">
-      <c r="A262" s="2"/>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" s="2"/>
-    </row>
-    <row r="264" spans="1:1">
-      <c r="A264" s="2"/>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" s="2"/>
-    </row>
-    <row r="266" spans="1:1">
-      <c r="A266" s="2"/>
-    </row>
-    <row r="267" spans="1:1">
-      <c r="A267" s="2"/>
-    </row>
-    <row r="268" spans="1:1">
-      <c r="A268" s="2"/>
-    </row>
-    <row r="269" spans="1:1">
-      <c r="A269" s="2"/>
-    </row>
-    <row r="270" spans="1:1">
-      <c r="A270" s="2"/>
-    </row>
-    <row r="271" spans="1:1">
-      <c r="A271" s="2"/>
-    </row>
-    <row r="272" spans="1:1">
-      <c r="A272" s="2"/>
-    </row>
-    <row r="273" spans="1:1">
-      <c r="A273" s="2"/>
-    </row>
-    <row r="274" spans="1:1">
-      <c r="A274" s="2"/>
-    </row>
-    <row r="275" spans="1:1">
-      <c r="A275" s="2"/>
-    </row>
-    <row r="276" spans="1:1">
-      <c r="A276" s="2"/>
-    </row>
-    <row r="277" spans="1:1">
-      <c r="A277" s="2"/>
-    </row>
-    <row r="278" spans="1:1">
-      <c r="A278" s="2"/>
-    </row>
-    <row r="279" spans="1:1">
-      <c r="A279" s="2"/>
-    </row>
-    <row r="280" spans="1:1">
-      <c r="A280" s="2"/>
-    </row>
-    <row r="281" spans="1:1">
-      <c r="A281" s="2"/>
-    </row>
-    <row r="282" spans="1:1">
-      <c r="A282" s="2"/>
-    </row>
-    <row r="283" spans="1:1">
-      <c r="A283" s="2"/>
-    </row>
-    <row r="284" spans="1:1">
-      <c r="A284" s="2"/>
-    </row>
-    <row r="285" spans="1:1">
-      <c r="A285" s="2"/>
-    </row>
-    <row r="286" spans="1:1">
-      <c r="A286" s="2"/>
-    </row>
-    <row r="287" spans="1:1">
-      <c r="A287" s="2"/>
-    </row>
-    <row r="288" spans="1:1">
-      <c r="A288" s="2"/>
-    </row>
-    <row r="289" spans="1:1">
-      <c r="A289" s="2"/>
-    </row>
-    <row r="290" spans="1:1">
-      <c r="A290" s="2"/>
-    </row>
-    <row r="291" spans="1:1">
-      <c r="A291" s="2"/>
-    </row>
-    <row r="292" spans="1:1">
-      <c r="A292" s="2"/>
-    </row>
-    <row r="293" spans="1:1">
-      <c r="A293" s="2"/>
-    </row>
-    <row r="294" spans="1:1">
-      <c r="A294" s="2"/>
-    </row>
-    <row r="295" spans="1:1">
-      <c r="A295" s="2"/>
-    </row>
-    <row r="296" spans="1:1">
-      <c r="A296" s="2"/>
-    </row>
-    <row r="297" spans="1:1">
-      <c r="A297" s="2"/>
-    </row>
-    <row r="298" spans="1:1">
-      <c r="A298" s="2"/>
-    </row>
-    <row r="299" spans="1:1">
-      <c r="A299" s="2"/>
-    </row>
-    <row r="300" spans="1:1">
-      <c r="A300" s="2"/>
-    </row>
-    <row r="301" spans="1:1">
-      <c r="A301" s="2"/>
-    </row>
-    <row r="302" spans="1:1">
-      <c r="A302" s="2"/>
-    </row>
-    <row r="303" spans="1:1">
-      <c r="A303" s="2"/>
-    </row>
-    <row r="304" spans="1:1">
-      <c r="A304" s="2"/>
-    </row>
-    <row r="305" spans="1:1">
-      <c r="A305" s="2"/>
-    </row>
-    <row r="306" spans="1:1">
-      <c r="A306" s="2"/>
-    </row>
-    <row r="307" spans="1:1">
-      <c r="A307" s="2"/>
-    </row>
-    <row r="308" spans="1:1">
-      <c r="A308" s="2"/>
-    </row>
-    <row r="309" spans="1:1">
-      <c r="A309" s="2"/>
-    </row>
-    <row r="310" spans="1:1">
-      <c r="A310" s="2"/>
-    </row>
-    <row r="311" spans="1:1">
-      <c r="A311" s="2"/>
-    </row>
-    <row r="312" spans="1:1">
-      <c r="A312" s="2"/>
-    </row>
-    <row r="313" spans="1:1">
-      <c r="A313" s="2"/>
-    </row>
-    <row r="314" spans="1:1">
-      <c r="A314" s="2"/>
-    </row>
-    <row r="315" spans="1:1">
-      <c r="A315" s="2"/>
-    </row>
-    <row r="316" spans="1:1">
-      <c r="A316" s="2"/>
-    </row>
-    <row r="317" spans="1:1">
-      <c r="A317" s="2"/>
-    </row>
-    <row r="318" spans="1:1">
-      <c r="A318" s="2"/>
-    </row>
-    <row r="319" spans="1:1">
-      <c r="A319" s="2"/>
-    </row>
-    <row r="320" spans="1:1">
-      <c r="A320" s="2"/>
-    </row>
-    <row r="321" spans="1:1">
-      <c r="A321" s="2"/>
-    </row>
-    <row r="322" spans="1:1">
-      <c r="A322" s="2"/>
-    </row>
-    <row r="323" spans="1:1">
-      <c r="A323" s="2"/>
-    </row>
-    <row r="324" spans="1:1">
-      <c r="A324" s="2"/>
-    </row>
-    <row r="325" spans="1:1">
-      <c r="A325" s="2"/>
-    </row>
-    <row r="326" spans="1:1">
-      <c r="A326" s="2"/>
-    </row>
-    <row r="327" spans="1:1">
-      <c r="A327" s="2"/>
-    </row>
-    <row r="328" spans="1:1">
-      <c r="A328" s="2"/>
-    </row>
-    <row r="329" spans="1:1">
-      <c r="A329" s="2"/>
-    </row>
-    <row r="330" spans="1:1">
-      <c r="A330" s="2"/>
-    </row>
-    <row r="331" spans="1:1">
-      <c r="A331" s="2"/>
-    </row>
-    <row r="332" spans="1:1">
-      <c r="A332" s="2"/>
-    </row>
-    <row r="333" spans="1:1">
-      <c r="A333" s="2"/>
-    </row>
-    <row r="334" spans="1:1">
-      <c r="A334" s="2"/>
-    </row>
-    <row r="335" spans="1:1">
-      <c r="A335" s="2"/>
-    </row>
-    <row r="336" spans="1:1">
-      <c r="A336" s="2"/>
-    </row>
-    <row r="337" spans="1:1">
-      <c r="A337" s="2"/>
-    </row>
-    <row r="338" spans="1:1">
-      <c r="A338" s="2"/>
-    </row>
-    <row r="339" spans="1:1">
-      <c r="A339" s="2"/>
-    </row>
-    <row r="340" spans="1:1">
-      <c r="A340" s="2"/>
-    </row>
-    <row r="341" spans="1:1">
-      <c r="A341" s="2"/>
-    </row>
-    <row r="342" spans="1:1">
-      <c r="A342" s="2"/>
-    </row>
-    <row r="343" spans="1:1">
-      <c r="A343" s="2"/>
-    </row>
-    <row r="344" spans="1:1">
-      <c r="A344" s="2"/>
-    </row>
-    <row r="345" spans="1:1">
-      <c r="A345" s="2"/>
-    </row>
-    <row r="346" spans="1:1">
-      <c r="A346" s="2"/>
-    </row>
-    <row r="347" spans="1:1">
-      <c r="A347" s="2"/>
-    </row>
-    <row r="348" spans="1:1">
-      <c r="A348" s="2"/>
-    </row>
-    <row r="349" spans="1:1">
-      <c r="A349" s="2"/>
-    </row>
-    <row r="350" spans="1:1">
-      <c r="A350" s="2"/>
-    </row>
-    <row r="351" spans="1:1">
-      <c r="A351" s="2"/>
-    </row>
-    <row r="352" spans="1:1">
-      <c r="A352" s="2"/>
-    </row>
-    <row r="353" spans="1:1">
-      <c r="A353" s="2"/>
-    </row>
-    <row r="354" spans="1:1">
-      <c r="A354" s="2"/>
-    </row>
-    <row r="355" spans="1:1">
-      <c r="A355" s="2"/>
-    </row>
-    <row r="356" spans="1:1">
-      <c r="A356" s="2"/>
-    </row>
-    <row r="357" spans="1:1">
-      <c r="A357" s="2"/>
-    </row>
-    <row r="358" spans="1:1">
-      <c r="A358" s="2"/>
-    </row>
-    <row r="359" spans="1:1">
-      <c r="A359" s="2"/>
-    </row>
-    <row r="360" spans="1:1">
-      <c r="A360" s="2"/>
-    </row>
-    <row r="361" spans="1:1">
-      <c r="A361" s="2"/>
-    </row>
-    <row r="362" spans="1:1">
-      <c r="A362" s="2"/>
-    </row>
-    <row r="363" spans="1:1">
-      <c r="A363" s="2"/>
-    </row>
-    <row r="364" spans="1:1">
-      <c r="A364" s="2"/>
-    </row>
-    <row r="365" spans="1:1">
-      <c r="A365" s="2"/>
-    </row>
-    <row r="366" spans="1:1">
-      <c r="A366" s="2"/>
-    </row>
-    <row r="367" spans="1:1">
-      <c r="A367" s="2"/>
-    </row>
-    <row r="368" spans="1:1">
-      <c r="A368" s="2"/>
-    </row>
-    <row r="369" spans="1:1">
-      <c r="A369" s="2"/>
-    </row>
-    <row r="370" spans="1:1">
-      <c r="A370" s="2"/>
-    </row>
-    <row r="371" spans="1:1">
-      <c r="A371" s="2"/>
-    </row>
-    <row r="372" spans="1:1">
-      <c r="A372" s="2"/>
-    </row>
-    <row r="373" spans="1:1">
-      <c r="A373" s="2"/>
-    </row>
-    <row r="374" spans="1:1">
-      <c r="A374" s="2"/>
-    </row>
-    <row r="375" spans="1:1">
-      <c r="A375" s="2"/>
-    </row>
-    <row r="376" spans="1:1">
-      <c r="A376" s="2"/>
-    </row>
-    <row r="377" spans="1:1">
-      <c r="A377" s="2"/>
-    </row>
-    <row r="378" spans="1:1">
-      <c r="A378" s="2"/>
-    </row>
-    <row r="379" spans="1:1">
-      <c r="A379" s="2"/>
-    </row>
-    <row r="380" spans="1:1">
-      <c r="A380" s="2"/>
-    </row>
-    <row r="381" spans="1:1">
-      <c r="A381" s="2"/>
-    </row>
-    <row r="382" spans="1:1">
-      <c r="A382" s="2"/>
-    </row>
-    <row r="383" spans="1:1">
-      <c r="A383" s="2"/>
-    </row>
-    <row r="384" spans="1:1">
-      <c r="A384" s="2"/>
-    </row>
-    <row r="385" spans="1:1">
-      <c r="A385" s="2"/>
-    </row>
-    <row r="386" spans="1:1">
-      <c r="A386" s="2"/>
-    </row>
-    <row r="387" spans="1:1">
-      <c r="A387" s="2"/>
-    </row>
-    <row r="388" spans="1:1">
-      <c r="A388" s="2"/>
-    </row>
-    <row r="389" spans="1:1">
-      <c r="A389" s="2"/>
-    </row>
-    <row r="390" spans="1:1">
-      <c r="A390" s="2"/>
-    </row>
-    <row r="391" spans="1:1">
-      <c r="A391" s="2"/>
-    </row>
-    <row r="392" spans="1:1">
-      <c r="A392" s="2"/>
-    </row>
-    <row r="393" spans="1:1">
-      <c r="A393" s="2"/>
-    </row>
-    <row r="394" spans="1:1">
-      <c r="A394" s="2"/>
-    </row>
-    <row r="395" spans="1:1">
-      <c r="A395" s="2"/>
-    </row>
-    <row r="396" spans="1:1">
-      <c r="A396" s="2"/>
-    </row>
-    <row r="397" spans="1:1">
-      <c r="A397" s="2"/>
-    </row>
-    <row r="398" spans="1:1">
-      <c r="A398" s="2"/>
-    </row>
-    <row r="399" spans="1:1">
-      <c r="A399" s="2"/>
-    </row>
-    <row r="400" spans="1:1">
-      <c r="A400" s="2"/>
-    </row>
-    <row r="401" spans="1:1">
-      <c r="A401" s="2"/>
-    </row>
-    <row r="402" spans="1:1">
-      <c r="A402" s="2"/>
-    </row>
-    <row r="403" spans="1:1">
-      <c r="A403" s="2"/>
-    </row>
-    <row r="404" spans="1:1">
-      <c r="A404" s="2"/>
-    </row>
-    <row r="405" spans="1:1">
-      <c r="A405" s="2"/>
-    </row>
-    <row r="406" spans="1:1">
-      <c r="A406" s="2"/>
-    </row>
-    <row r="407" spans="1:1">
-      <c r="A407" s="2"/>
-    </row>
-    <row r="408" spans="1:1">
-      <c r="A408" s="2"/>
-    </row>
-    <row r="409" spans="1:1">
-      <c r="A409" s="2"/>
-    </row>
-    <row r="410" spans="1:1">
-      <c r="A410" s="2"/>
-    </row>
-    <row r="411" spans="1:1">
-      <c r="A411" s="2"/>
-    </row>
-    <row r="412" spans="1:1">
-      <c r="A412" s="2"/>
-    </row>
-    <row r="413" spans="1:1">
-      <c r="A413" s="2"/>
-    </row>
-    <row r="414" spans="1:1">
-      <c r="A414" s="2"/>
-    </row>
-    <row r="415" spans="1:1">
-      <c r="A415" s="2"/>
-    </row>
-    <row r="416" spans="1:1">
-      <c r="A416" s="2"/>
-    </row>
-    <row r="417" spans="1:1">
-      <c r="A417" s="2"/>
-    </row>
-    <row r="418" spans="1:1">
-      <c r="A418" s="2"/>
-    </row>
-    <row r="419" spans="1:1">
-      <c r="A419" s="2"/>
-    </row>
-    <row r="420" spans="1:1">
-      <c r="A420" s="2"/>
-    </row>
-    <row r="421" spans="1:1">
-      <c r="A421" s="2"/>
-    </row>
-    <row r="422" spans="1:1">
-      <c r="A422" s="2"/>
-    </row>
-    <row r="423" spans="1:1">
-      <c r="A423" s="2"/>
-    </row>
-    <row r="424" spans="1:1">
-      <c r="A424" s="2"/>
-    </row>
-    <row r="425" spans="1:1">
-      <c r="A425" s="2"/>
-    </row>
-    <row r="426" spans="1:1">
-      <c r="A426" s="2"/>
-    </row>
-    <row r="427" spans="1:1">
-      <c r="A427" s="2"/>
-    </row>
-    <row r="428" spans="1:1">
-      <c r="A428" s="2"/>
-    </row>
-    <row r="429" spans="1:1">
-      <c r="A429" s="2"/>
-    </row>
-    <row r="430" spans="1:1">
-      <c r="A430" s="2"/>
-    </row>
-    <row r="431" spans="1:1">
-      <c r="A431" s="2"/>
-    </row>
-    <row r="432" spans="1:1">
-      <c r="A432" s="2"/>
-    </row>
-    <row r="433" spans="1:1">
-      <c r="A433" s="2"/>
-    </row>
-    <row r="434" spans="1:1">
-      <c r="A434" s="2"/>
-    </row>
-    <row r="435" spans="1:1">
-      <c r="A435" s="2"/>
-    </row>
-    <row r="436" spans="1:1">
-      <c r="A436" s="2"/>
-    </row>
-    <row r="437" spans="1:1">
-      <c r="A437" s="2"/>
-    </row>
-    <row r="438" spans="1:1">
-      <c r="A438" s="2"/>
-    </row>
-    <row r="439" spans="1:1">
-      <c r="A439" s="2"/>
-    </row>
-    <row r="440" spans="1:1">
-      <c r="A440" s="2"/>
-    </row>
-    <row r="441" spans="1:1">
-      <c r="A441" s="2"/>
-    </row>
-    <row r="442" spans="1:1">
-      <c r="A442" s="2"/>
-    </row>
-    <row r="443" spans="1:1">
-      <c r="A443" s="2"/>
-    </row>
-    <row r="444" spans="1:1">
-      <c r="A444" s="2"/>
-    </row>
-    <row r="445" spans="1:1">
-      <c r="A445" s="2"/>
-    </row>
-    <row r="446" spans="1:1">
-      <c r="A446" s="2"/>
-    </row>
-    <row r="447" spans="1:1">
-      <c r="A447" s="2"/>
-    </row>
-    <row r="448" spans="1:1">
-      <c r="A448" s="2"/>
-    </row>
-    <row r="449" spans="1:1">
-      <c r="A449" s="2"/>
-    </row>
-    <row r="450" spans="1:1">
-      <c r="A450" s="2"/>
-    </row>
-    <row r="451" spans="1:1">
-      <c r="A451" s="2"/>
-    </row>
-    <row r="452" spans="1:1">
-      <c r="A452" s="2"/>
-    </row>
-    <row r="453" spans="1:1">
-      <c r="A453" s="2"/>
-    </row>
-    <row r="454" spans="1:1">
-      <c r="A454" s="2"/>
-    </row>
-    <row r="455" spans="1:1">
-      <c r="A455" s="2"/>
-    </row>
-    <row r="456" spans="1:1">
-      <c r="A456" s="2"/>
-    </row>
-    <row r="457" spans="1:1">
-      <c r="A457" s="2"/>
-    </row>
-    <row r="458" spans="1:1">
-      <c r="A458" s="2"/>
-    </row>
-    <row r="459" spans="1:1">
-      <c r="A459" s="2"/>
-    </row>
-    <row r="460" spans="1:1">
-      <c r="A460" s="2"/>
-    </row>
-    <row r="461" spans="1:1">
-      <c r="A461" s="2"/>
-    </row>
-    <row r="462" spans="1:1">
-      <c r="A462" s="2"/>
-    </row>
-    <row r="463" spans="1:1">
-      <c r="A463" s="2"/>
-    </row>
-    <row r="464" spans="1:1">
-      <c r="A464" s="2"/>
-    </row>
-    <row r="465" spans="1:1">
-      <c r="A465" s="2"/>
-    </row>
-    <row r="466" spans="1:1">
-      <c r="A466" s="2"/>
-    </row>
-    <row r="467" spans="1:1">
-      <c r="A467" s="2"/>
-    </row>
-    <row r="468" spans="1:1">
-      <c r="A468" s="2"/>
-    </row>
-    <row r="469" spans="1:1">
-      <c r="A469" s="2"/>
-    </row>
-    <row r="470" spans="1:1">
-      <c r="A470" s="2"/>
-    </row>
-    <row r="471" spans="1:1">
-      <c r="A471" s="2"/>
-    </row>
-    <row r="472" spans="1:1">
-      <c r="A472" s="2"/>
-    </row>
-    <row r="473" spans="1:1">
-      <c r="A473" s="2"/>
-    </row>
-    <row r="474" spans="1:1">
-      <c r="A474" s="2"/>
-    </row>
-    <row r="475" spans="1:1">
-      <c r="A475" s="2"/>
-    </row>
-    <row r="476" spans="1:1">
-      <c r="A476" s="2"/>
-    </row>
-    <row r="477" spans="1:1">
-      <c r="A477" s="2"/>
-    </row>
-    <row r="478" spans="1:1">
-      <c r="A478" s="2"/>
-    </row>
-    <row r="479" spans="1:1">
-      <c r="A479" s="2"/>
-    </row>
-    <row r="480" spans="1:1">
-      <c r="A480" s="2"/>
-    </row>
-    <row r="481" spans="1:1">
-      <c r="A481" s="2"/>
-    </row>
-    <row r="482" spans="1:1">
-      <c r="A482" s="2"/>
-    </row>
-    <row r="483" spans="1:1">
-      <c r="A483" s="2"/>
-    </row>
-    <row r="484" spans="1:1">
-      <c r="A484" s="2"/>
-    </row>
-    <row r="485" spans="1:1">
-      <c r="A485" s="2"/>
-    </row>
-    <row r="486" spans="1:1">
-      <c r="A486" s="2"/>
-    </row>
-    <row r="487" spans="1:1">
-      <c r="A487" s="2"/>
-    </row>
-    <row r="488" spans="1:1">
-      <c r="A488" s="2"/>
-    </row>
-    <row r="489" spans="1:1">
-      <c r="A489" s="2"/>
-    </row>
-    <row r="490" spans="1:1">
-      <c r="A490" s="2"/>
-    </row>
-    <row r="491" spans="1:1">
-      <c r="A491" s="2"/>
-    </row>
-    <row r="492" spans="1:1">
-      <c r="A492" s="2"/>
-    </row>
-    <row r="493" spans="1:1">
-      <c r="A493" s="2"/>
-    </row>
-    <row r="494" spans="1:1">
-      <c r="A494" s="2"/>
-    </row>
-    <row r="495" spans="1:1">
-      <c r="A495" s="2"/>
-    </row>
-    <row r="496" spans="1:1">
-      <c r="A496" s="2"/>
-    </row>
-    <row r="497" spans="1:1">
-      <c r="A497" s="2"/>
-    </row>
-    <row r="498" spans="1:1">
-      <c r="A498" s="2"/>
-    </row>
-    <row r="499" spans="1:1">
-      <c r="A499" s="2"/>
-    </row>
-    <row r="500" spans="1:1">
-      <c r="A500" s="2"/>
-    </row>
-    <row r="501" spans="1:1">
-      <c r="A501" s="2"/>
-    </row>
-    <row r="502" spans="1:1">
-      <c r="A502" s="2"/>
-    </row>
-    <row r="503" spans="1:1">
-      <c r="A503" s="2"/>
-    </row>
-    <row r="504" spans="1:1">
-      <c r="A504" s="2"/>
-    </row>
-    <row r="505" spans="1:1">
-      <c r="A505" s="2"/>
-    </row>
-    <row r="506" spans="1:1">
-      <c r="A506" s="2"/>
-    </row>
-    <row r="507" spans="1:1">
-      <c r="A507" s="2"/>
-    </row>
-    <row r="508" spans="1:1">
-      <c r="A508" s="2"/>
-    </row>
-    <row r="509" spans="1:1">
-      <c r="A509" s="2"/>
-    </row>
-    <row r="510" spans="1:1">
-      <c r="A510" s="2"/>
-    </row>
-    <row r="511" spans="1:1">
-      <c r="A511" s="2"/>
-    </row>
-    <row r="512" spans="1:1">
-      <c r="A512" s="2"/>
-    </row>
-    <row r="513" spans="1:1">
-      <c r="A513" s="2"/>
-    </row>
-    <row r="514" spans="1:1">
-      <c r="A514" s="2"/>
-    </row>
-    <row r="515" spans="1:1">
-      <c r="A515" s="2"/>
-    </row>
-    <row r="516" spans="1:1">
-      <c r="A516" s="2"/>
-    </row>
-    <row r="517" spans="1:1">
-      <c r="A517" s="2"/>
-    </row>
-    <row r="518" spans="1:1">
-      <c r="A518" s="2"/>
-    </row>
-    <row r="519" spans="1:1">
-      <c r="A519" s="2"/>
-    </row>
-    <row r="520" spans="1:1">
-      <c r="A520" s="2"/>
-    </row>
-    <row r="521" spans="1:1">
-      <c r="A521" s="2"/>
-    </row>
-    <row r="522" spans="1:1">
-      <c r="A522" s="2"/>
-    </row>
-    <row r="523" spans="1:1">
-      <c r="A523" s="2"/>
-    </row>
-    <row r="524" spans="1:1">
-      <c r="A524" s="2"/>
-    </row>
-    <row r="525" spans="1:1">
-      <c r="A525" s="2"/>
-    </row>
-    <row r="526" spans="1:1">
-      <c r="A526" s="2"/>
-    </row>
-    <row r="527" spans="1:1">
-      <c r="A527" s="2"/>
-    </row>
-    <row r="528" spans="1:1">
-      <c r="A528" s="2"/>
-    </row>
-    <row r="529" spans="1:1">
-      <c r="A529" s="2"/>
-    </row>
-    <row r="530" spans="1:1">
-      <c r="A530" s="2"/>
-    </row>
-    <row r="531" spans="1:1">
-      <c r="A531" s="2"/>
-    </row>
-    <row r="532" spans="1:1">
-      <c r="A532" s="2"/>
-    </row>
-    <row r="533" spans="1:1">
-      <c r="A533" s="2"/>
-    </row>
-    <row r="534" spans="1:1">
-      <c r="A534" s="2"/>
-    </row>
-    <row r="535" spans="1:1">
-      <c r="A535" s="2"/>
-    </row>
-    <row r="536" spans="1:1">
-      <c r="A536" s="2"/>
-    </row>
-    <row r="537" spans="1:1">
-      <c r="A537" s="2"/>
-    </row>
-    <row r="538" spans="1:1">
-      <c r="A538" s="2"/>
-    </row>
-    <row r="539" spans="1:1">
-      <c r="A539" s="2"/>
-    </row>
-    <row r="540" spans="1:1">
-      <c r="A540" s="2"/>
-    </row>
-    <row r="541" spans="1:1">
-      <c r="A541" s="2"/>
-    </row>
-    <row r="542" spans="1:1">
-      <c r="A542" s="2"/>
-    </row>
-    <row r="543" spans="1:1">
-      <c r="A543" s="2"/>
-    </row>
-    <row r="544" spans="1:1">
-      <c r="A544" s="2"/>
-    </row>
-    <row r="545" spans="1:1">
-      <c r="A545" s="2"/>
-    </row>
-    <row r="546" spans="1:1">
-      <c r="A546" s="2"/>
-    </row>
-    <row r="547" spans="1:1">
-      <c r="A547" s="2"/>
-    </row>
-    <row r="548" spans="1:1">
-      <c r="A548" s="2"/>
-    </row>
-    <row r="549" spans="1:1">
-      <c r="A549" s="2"/>
-    </row>
-    <row r="550" spans="1:1">
-      <c r="A550" s="2"/>
-    </row>
-    <row r="551" spans="1:1">
-      <c r="A551" s="2"/>
-    </row>
-    <row r="552" spans="1:1">
-      <c r="A552" s="2"/>
-    </row>
-    <row r="553" spans="1:1">
-      <c r="A553" s="2"/>
-    </row>
-    <row r="554" spans="1:1">
-      <c r="A554" s="2"/>
-    </row>
-    <row r="555" spans="1:1">
-      <c r="A555" s="2"/>
-    </row>
-    <row r="556" spans="1:1">
-      <c r="A556" s="2"/>
-    </row>
-    <row r="557" spans="1:1">
-      <c r="A557" s="2"/>
-    </row>
-    <row r="558" spans="1:1">
-      <c r="A558" s="2"/>
-    </row>
-    <row r="559" spans="1:1">
-      <c r="A559" s="2"/>
-    </row>
-    <row r="560" spans="1:1">
-      <c r="A560" s="2"/>
-    </row>
-    <row r="561" spans="1:1">
-      <c r="A561" s="2"/>
-    </row>
-    <row r="562" spans="1:1">
-      <c r="A562" s="2"/>
-    </row>
-    <row r="563" spans="1:1">
-      <c r="A563" s="2"/>
-    </row>
-    <row r="564" spans="1:1">
-      <c r="A564" s="2"/>
-    </row>
-    <row r="565" spans="1:1">
-      <c r="A565" s="2"/>
-    </row>
-    <row r="566" spans="1:1">
-      <c r="A566" s="2"/>
-    </row>
-    <row r="567" spans="1:1">
-      <c r="A567" s="2"/>
-    </row>
-    <row r="568" spans="1:1">
-      <c r="A568" s="2"/>
-    </row>
-    <row r="569" spans="1:1">
-      <c r="A569" s="2"/>
-    </row>
-    <row r="570" spans="1:1">
-      <c r="A570" s="2"/>
-    </row>
-    <row r="571" spans="1:1">
-      <c r="A571" s="2"/>
-    </row>
-    <row r="572" spans="1:1">
-      <c r="A572" s="2"/>
-    </row>
-    <row r="573" spans="1:1">
-      <c r="A573" s="2"/>
-    </row>
-    <row r="574" spans="1:1">
-      <c r="A574" s="2"/>
-    </row>
-    <row r="575" spans="1:1">
-      <c r="A575" s="2"/>
-    </row>
-    <row r="576" spans="1:1">
-      <c r="A576" s="2"/>
-    </row>
-    <row r="577" spans="1:1">
-      <c r="A577" s="2"/>
-    </row>
-    <row r="578" spans="1:1">
-      <c r="A578" s="2"/>
-    </row>
-    <row r="579" spans="1:1">
-      <c r="A579" s="2"/>
-    </row>
-    <row r="580" spans="1:1">
-      <c r="A580" s="2"/>
-    </row>
-    <row r="581" spans="1:1">
-      <c r="A581" s="2"/>
-    </row>
-    <row r="582" spans="1:1">
-      <c r="A582" s="2"/>
-    </row>
-    <row r="583" spans="1:1">
-      <c r="A583" s="2"/>
-    </row>
-    <row r="584" spans="1:1">
-      <c r="A584" s="2"/>
-    </row>
-    <row r="585" spans="1:1">
-      <c r="A585" s="2"/>
-    </row>
-    <row r="586" spans="1:1">
-      <c r="A586" s="2"/>
-    </row>
-    <row r="587" spans="1:1">
-      <c r="A587" s="2"/>
-    </row>
-    <row r="588" spans="1:1">
-      <c r="A588" s="2"/>
-    </row>
-    <row r="589" spans="1:1">
-      <c r="A589" s="2"/>
-    </row>
-    <row r="590" spans="1:1">
-      <c r="A590" s="2"/>
-    </row>
-    <row r="591" spans="1:1">
-      <c r="A591" s="2"/>
-    </row>
-    <row r="592" spans="1:1">
-      <c r="A592" s="2"/>
-    </row>
-    <row r="593" spans="1:1">
-      <c r="A593" s="2"/>
-    </row>
-    <row r="594" spans="1:1">
-      <c r="A594" s="2"/>
-    </row>
-    <row r="595" spans="1:1">
-      <c r="A595" s="2"/>
-    </row>
-    <row r="596" spans="1:1">
-      <c r="A596" s="2"/>
-    </row>
-    <row r="597" spans="1:1">
-      <c r="A597" s="2"/>
-    </row>
-    <row r="598" spans="1:1">
-      <c r="A598" s="2"/>
-    </row>
-    <row r="599" spans="1:1">
-      <c r="A599" s="2"/>
-    </row>
-    <row r="600" spans="1:1">
-      <c r="A600" s="2"/>
-    </row>
-    <row r="601" spans="1:1">
-      <c r="A601" s="2"/>
-    </row>
-    <row r="602" spans="1:1">
-      <c r="A602" s="2"/>
-    </row>
-    <row r="603" spans="1:1">
-      <c r="A603" s="2"/>
-    </row>
-    <row r="604" spans="1:1">
-      <c r="A604" s="2"/>
-    </row>
-    <row r="605" spans="1:1">
-      <c r="A605" s="2"/>
-    </row>
-    <row r="606" spans="1:1">
-      <c r="A606" s="2"/>
-    </row>
-    <row r="607" spans="1:1">
-      <c r="A607" s="2"/>
-    </row>
-    <row r="608" spans="1:1">
-      <c r="A608" s="2"/>
-    </row>
-    <row r="609" spans="1:1">
-      <c r="A609" s="2"/>
-    </row>
-    <row r="610" spans="1:1">
-      <c r="A610" s="2"/>
-    </row>
-    <row r="611" spans="1:1">
-      <c r="A611" s="2"/>
-    </row>
-    <row r="612" spans="1:1">
-      <c r="A612" s="2"/>
-    </row>
-    <row r="613" spans="1:1">
-      <c r="A613" s="2"/>
-    </row>
-    <row r="614" spans="1:1">
-      <c r="A614" s="2"/>
-    </row>
-    <row r="615" spans="1:1">
-      <c r="A615" s="2"/>
-    </row>
-    <row r="616" spans="1:1">
-      <c r="A616" s="2"/>
-    </row>
-    <row r="617" spans="1:1">
-      <c r="A617" s="2"/>
-    </row>
-    <row r="618" spans="1:1">
-      <c r="A618" s="2"/>
-    </row>
-    <row r="619" spans="1:1">
-      <c r="A619" s="2"/>
-    </row>
-    <row r="620" spans="1:1">
-      <c r="A620" s="2"/>
-    </row>
-    <row r="621" spans="1:1">
-      <c r="A621" s="2"/>
-    </row>
-    <row r="622" spans="1:1">
-      <c r="A622" s="2"/>
-    </row>
-    <row r="623" spans="1:1">
-      <c r="A623" s="2"/>
-    </row>
-    <row r="624" spans="1:1">
-      <c r="A624" s="2"/>
-    </row>
-    <row r="625" spans="1:1">
-      <c r="A625" s="2"/>
-    </row>
-    <row r="626" spans="1:1">
-      <c r="A626" s="2"/>
-    </row>
-    <row r="627" spans="1:1">
-      <c r="A627" s="2"/>
-    </row>
-    <row r="628" spans="1:1">
-      <c r="A628" s="2"/>
-    </row>
-    <row r="629" spans="1:1">
-      <c r="A629" s="2"/>
-    </row>
-    <row r="630" spans="1:1">
-      <c r="A630" s="2"/>
-    </row>
-    <row r="631" spans="1:1">
-      <c r="A631" s="2"/>
-    </row>
-    <row r="632" spans="1:1">
-      <c r="A632" s="2"/>
-    </row>
-    <row r="633" spans="1:1">
-      <c r="A633" s="2"/>
-    </row>
-    <row r="634" spans="1:1">
-      <c r="A634" s="2"/>
-    </row>
-    <row r="635" spans="1:1">
-      <c r="A635" s="2"/>
-    </row>
-    <row r="636" spans="1:1">
-      <c r="A636" s="2"/>
-    </row>
-    <row r="637" spans="1:1">
-      <c r="A637" s="2"/>
-    </row>
-    <row r="638" spans="1:1">
-      <c r="A638" s="2"/>
-    </row>
-    <row r="639" spans="1:1">
-      <c r="A639" s="2"/>
-    </row>
-    <row r="640" spans="1:1">
-      <c r="A640" s="2"/>
-    </row>
-    <row r="641" spans="1:1">
-      <c r="A641" s="2"/>
-    </row>
-    <row r="642" spans="1:1">
-      <c r="A642" s="2"/>
-    </row>
-    <row r="643" spans="1:1">
-      <c r="A643" s="2"/>
-    </row>
-    <row r="644" spans="1:1">
-      <c r="A644" s="2"/>
-    </row>
-    <row r="645" spans="1:1">
-      <c r="A645" s="2"/>
-    </row>
-    <row r="646" spans="1:1">
-      <c r="A646" s="2"/>
-    </row>
-    <row r="647" spans="1:1">
-      <c r="A647" s="2"/>
-    </row>
-    <row r="648" spans="1:1">
-      <c r="A648" s="2"/>
-    </row>
-    <row r="649" spans="1:1">
-      <c r="A649" s="2"/>
-    </row>
-    <row r="650" spans="1:1">
-      <c r="A650" s="2"/>
-    </row>
-    <row r="651" spans="1:1">
-      <c r="A651" s="2"/>
-    </row>
-    <row r="652" spans="1:1">
-      <c r="A652" s="2"/>
-    </row>
-    <row r="653" spans="1:1">
-      <c r="A653" s="2"/>
-    </row>
-    <row r="654" spans="1:1">
-      <c r="A654" s="2"/>
-    </row>
-    <row r="655" spans="1:1">
-      <c r="A655" s="2"/>
-    </row>
-    <row r="656" spans="1:1">
-      <c r="A656" s="2"/>
-    </row>
-    <row r="657" spans="1:1">
-      <c r="A657" s="2"/>
-    </row>
-    <row r="658" spans="1:1">
-      <c r="A658" s="2"/>
-    </row>
-    <row r="659" spans="1:1">
-      <c r="A659" s="2"/>
-    </row>
-    <row r="660" spans="1:1">
-      <c r="A660" s="2"/>
-    </row>
-    <row r="661" spans="1:1">
-      <c r="A661" s="2"/>
-    </row>
-    <row r="662" spans="1:1">
-      <c r="A662" s="2"/>
-    </row>
-    <row r="663" spans="1:1">
-      <c r="A663" s="2"/>
-    </row>
-    <row r="664" spans="1:1">
-      <c r="A664" s="2"/>
-    </row>
-    <row r="665" spans="1:1">
-      <c r="A665" s="2"/>
-    </row>
-    <row r="666" spans="1:1">
-      <c r="A666" s="2"/>
-    </row>
-    <row r="667" spans="1:1">
-      <c r="A667" s="2"/>
-    </row>
-    <row r="668" spans="1:1">
-      <c r="A668" s="2"/>
-    </row>
-    <row r="669" spans="1:1">
-      <c r="A669" s="2"/>
-    </row>
-    <row r="670" spans="1:1">
-      <c r="A670" s="2"/>
-    </row>
-    <row r="671" spans="1:1">
-      <c r="A671" s="2"/>
-    </row>
-    <row r="672" spans="1:1">
-      <c r="A672" s="2"/>
-    </row>
-    <row r="673" spans="1:1">
-      <c r="A673" s="2"/>
-    </row>
-    <row r="674" spans="1:1">
-      <c r="A674" s="2"/>
-    </row>
-    <row r="675" spans="1:1">
-      <c r="A675" s="2"/>
-    </row>
-    <row r="676" spans="1:1">
-      <c r="A676" s="2"/>
-    </row>
-    <row r="677" spans="1:1">
-      <c r="A677" s="2"/>
-    </row>
-    <row r="678" spans="1:1">
-      <c r="A678" s="2"/>
-    </row>
-    <row r="679" spans="1:1">
-      <c r="A679" s="2"/>
-    </row>
-    <row r="680" spans="1:1">
-      <c r="A680" s="2"/>
-    </row>
-    <row r="681" spans="1:1">
-      <c r="A681" s="2"/>
-    </row>
-    <row r="682" spans="1:1">
-      <c r="A682" s="2"/>
-    </row>
-    <row r="683" spans="1:1">
-      <c r="A683" s="2"/>
-    </row>
-    <row r="684" spans="1:1">
-      <c r="A684" s="2"/>
-    </row>
-    <row r="685" spans="1:1">
-      <c r="A685" s="2"/>
-    </row>
-    <row r="686" spans="1:1">
-      <c r="A686" s="2"/>
-    </row>
-    <row r="687" spans="1:1">
-      <c r="A687" s="2"/>
-    </row>
-    <row r="688" spans="1:1">
-      <c r="A688" s="2"/>
-    </row>
-    <row r="689" spans="1:1">
-      <c r="A689" s="2"/>
-    </row>
-    <row r="690" spans="1:1">
-      <c r="A690" s="2"/>
-    </row>
-    <row r="691" spans="1:1">
-      <c r="A691" s="2"/>
-    </row>
-    <row r="692" spans="1:1">
-      <c r="A692" s="2"/>
-    </row>
-    <row r="693" spans="1:1">
-      <c r="A693" s="2"/>
-    </row>
-    <row r="694" spans="1:1">
-      <c r="A694" s="2"/>
-    </row>
-    <row r="695" spans="1:1">
-      <c r="A695" s="2"/>
-    </row>
-    <row r="696" spans="1:1">
-      <c r="A696" s="2"/>
-    </row>
-    <row r="697" spans="1:1">
-      <c r="A697" s="2"/>
-    </row>
-    <row r="698" spans="1:1">
-      <c r="A698" s="2"/>
-    </row>
-    <row r="699" spans="1:1">
-      <c r="A699" s="2"/>
-    </row>
-    <row r="700" spans="1:1">
-      <c r="A700" s="2"/>
-    </row>
-    <row r="701" spans="1:1">
-      <c r="A701" s="2"/>
-    </row>
-    <row r="702" spans="1:1">
-      <c r="A702" s="2"/>
-    </row>
-    <row r="703" spans="1:1">
-      <c r="A703" s="2"/>
-    </row>
-    <row r="704" spans="1:1">
-      <c r="A704" s="2"/>
-    </row>
-    <row r="705" spans="1:1">
-      <c r="A705" s="2"/>
-    </row>
-    <row r="706" spans="1:1">
-      <c r="A706" s="2"/>
-    </row>
-    <row r="707" spans="1:1">
-      <c r="A707" s="2"/>
-    </row>
-    <row r="708" spans="1:1">
-      <c r="A708" s="2"/>
-    </row>
-    <row r="709" spans="1:1">
-      <c r="A709" s="2"/>
-    </row>
-    <row r="710" spans="1:1">
-      <c r="A710" s="2"/>
-    </row>
-    <row r="711" spans="1:1">
-      <c r="A711" s="2"/>
-    </row>
-    <row r="712" spans="1:1">
-      <c r="A712" s="2"/>
-    </row>
-    <row r="713" spans="1:1">
-      <c r="A713" s="2"/>
-    </row>
-    <row r="714" spans="1:1">
-      <c r="A714" s="2"/>
-    </row>
-    <row r="715" spans="1:1">
-      <c r="A715" s="2"/>
-    </row>
-    <row r="716" spans="1:1">
-      <c r="A716" s="2"/>
-    </row>
-    <row r="717" spans="1:1">
-      <c r="A717" s="2"/>
-    </row>
-    <row r="718" spans="1:1">
-      <c r="A718" s="2"/>
-    </row>
-    <row r="719" spans="1:1">
-      <c r="A719" s="2"/>
-    </row>
-    <row r="720" spans="1:1">
-      <c r="A720" s="2"/>
-    </row>
-    <row r="721" spans="1:1">
-      <c r="A721" s="2"/>
-    </row>
-    <row r="722" spans="1:1">
-      <c r="A722" s="2"/>
-    </row>
-    <row r="723" spans="1:1">
-      <c r="A723" s="2"/>
-    </row>
-    <row r="724" spans="1:1">
-      <c r="A724" s="2"/>
-    </row>
-    <row r="725" spans="1:1">
-      <c r="A725" s="2"/>
-    </row>
-    <row r="726" spans="1:1">
-      <c r="A726" s="2"/>
-    </row>
-    <row r="727" spans="1:1">
-      <c r="A727" s="2"/>
-    </row>
-    <row r="728" spans="1:1">
-      <c r="A728" s="2"/>
-    </row>
-    <row r="729" spans="1:1">
-      <c r="A729" s="2"/>
-    </row>
-    <row r="730" spans="1:1">
-      <c r="A730" s="2"/>
-    </row>
-    <row r="731" spans="1:1">
-      <c r="A731" s="2"/>
-    </row>
-    <row r="732" spans="1:1">
-      <c r="A732" s="2"/>
-    </row>
-    <row r="733" spans="1:1">
-      <c r="A733" s="2"/>
-    </row>
-    <row r="734" spans="1:1">
-      <c r="A734" s="2"/>
-    </row>
-    <row r="735" spans="1:1">
-      <c r="A735" s="2"/>
-    </row>
-    <row r="736" spans="1:1">
-      <c r="A736" s="2"/>
-    </row>
-    <row r="737" spans="1:1">
-      <c r="A737" s="2"/>
-    </row>
-    <row r="738" spans="1:1">
-      <c r="A738" s="2"/>
-    </row>
-    <row r="739" spans="1:1">
-      <c r="A739" s="2"/>
-    </row>
-    <row r="740" spans="1:1">
-      <c r="A740" s="2"/>
-    </row>
-    <row r="741" spans="1:1">
-      <c r="A741" s="2"/>
-    </row>
-    <row r="742" spans="1:1">
-      <c r="A742" s="2"/>
-    </row>
-    <row r="743" spans="1:1">
-      <c r="A743" s="2"/>
-    </row>
-    <row r="744" spans="1:1">
-      <c r="A744" s="2"/>
-    </row>
-    <row r="745" spans="1:1">
-      <c r="A745" s="2"/>
-    </row>
-    <row r="746" spans="1:1">
-      <c r="A746" s="2"/>
-    </row>
-    <row r="747" spans="1:1">
-      <c r="A747" s="2"/>
-    </row>
-    <row r="748" spans="1:1">
-      <c r="A748" s="2"/>
-    </row>
-    <row r="749" spans="1:1">
-      <c r="A749" s="2"/>
-    </row>
-    <row r="750" spans="1:1">
-      <c r="A750" s="2"/>
-    </row>
-    <row r="751" spans="1:1">
-      <c r="A751" s="2"/>
-    </row>
-    <row r="752" spans="1:1">
-      <c r="A752" s="2"/>
-    </row>
-    <row r="753" spans="1:1">
-      <c r="A753" s="2"/>
-    </row>
-    <row r="754" spans="1:1">
-      <c r="A754" s="2"/>
-    </row>
-    <row r="755" spans="1:1">
-      <c r="A755" s="2"/>
-    </row>
-    <row r="756" spans="1:1">
-      <c r="A756" s="2"/>
-    </row>
-    <row r="757" spans="1:1">
-      <c r="A757" s="2"/>
-    </row>
-    <row r="758" spans="1:1">
-      <c r="A758" s="2"/>
-    </row>
-    <row r="759" spans="1:1">
-      <c r="A759" s="2"/>
-    </row>
-    <row r="760" spans="1:1">
-      <c r="A760" s="2"/>
-    </row>
-    <row r="761" spans="1:1">
-      <c r="A761" s="2"/>
-    </row>
-    <row r="762" spans="1:1">
-      <c r="A762" s="2"/>
-    </row>
-    <row r="763" spans="1:1">
-      <c r="A763" s="2"/>
-    </row>
-    <row r="764" spans="1:1">
-      <c r="A764" s="2"/>
-    </row>
-    <row r="765" spans="1:1">
-      <c r="A765" s="2"/>
-    </row>
-    <row r="766" spans="1:1">
-      <c r="A766" s="2"/>
-    </row>
-    <row r="767" spans="1:1">
-      <c r="A767" s="2"/>
-    </row>
-    <row r="768" spans="1:1">
-      <c r="A768" s="2"/>
-    </row>
-    <row r="769" spans="1:1">
-      <c r="A769" s="2"/>
-    </row>
-    <row r="770" spans="1:1">
-      <c r="A770" s="2"/>
-    </row>
-    <row r="771" spans="1:1">
-      <c r="A771" s="2"/>
-    </row>
-    <row r="772" spans="1:1">
-      <c r="A772" s="2"/>
-    </row>
-    <row r="773" spans="1:1">
-      <c r="A773" s="2"/>
-    </row>
-    <row r="774" spans="1:1">
-      <c r="A774" s="2"/>
-    </row>
-    <row r="775" spans="1:1">
-      <c r="A775" s="2"/>
-    </row>
-    <row r="776" spans="1:1">
-      <c r="A776" s="2"/>
-    </row>
-    <row r="777" spans="1:1">
-      <c r="A777" s="2"/>
-    </row>
-    <row r="778" spans="1:1">
-      <c r="A778" s="2"/>
-    </row>
-    <row r="779" spans="1:1">
-      <c r="A779" s="2"/>
-    </row>
-    <row r="780" spans="1:1">
-      <c r="A780" s="2"/>
-    </row>
-    <row r="781" spans="1:1">
-      <c r="A781" s="2"/>
-    </row>
-    <row r="782" spans="1:1">
-      <c r="A782" s="2"/>
-    </row>
-    <row r="783" spans="1:1">
-      <c r="A783" s="2"/>
-    </row>
-    <row r="784" spans="1:1">
-      <c r="A784" s="2"/>
-    </row>
-    <row r="785" spans="1:1">
-      <c r="A785" s="2"/>
-    </row>
-    <row r="786" spans="1:1">
-      <c r="A786" s="2"/>
-    </row>
-    <row r="787" spans="1:1">
-      <c r="A787" s="2"/>
-    </row>
-    <row r="788" spans="1:1">
-      <c r="A788" s="2"/>
-    </row>
-    <row r="789" spans="1:1">
-      <c r="A789" s="2"/>
-    </row>
-    <row r="790" spans="1:1">
-      <c r="A790" s="2"/>
-    </row>
-    <row r="791" spans="1:1">
-      <c r="A791" s="2"/>
-    </row>
-    <row r="792" spans="1:1">
-      <c r="A792" s="2"/>
-    </row>
-    <row r="793" spans="1:1">
-      <c r="A793" s="2"/>
-    </row>
-    <row r="794" spans="1:1">
-      <c r="A794" s="2"/>
-    </row>
-    <row r="795" spans="1:1">
-      <c r="A795" s="2"/>
-    </row>
-    <row r="796" spans="1:1">
-      <c r="A796" s="2"/>
-    </row>
-    <row r="797" spans="1:1">
-      <c r="A797" s="2"/>
-    </row>
-    <row r="798" spans="1:1">
-      <c r="A798" s="2"/>
-    </row>
-    <row r="799" spans="1:1">
-      <c r="A799" s="2"/>
-    </row>
-    <row r="800" spans="1:1">
-      <c r="A800" s="2"/>
-    </row>
-    <row r="801" spans="1:1">
-      <c r="A801" s="2"/>
-    </row>
-    <row r="802" spans="1:1">
-      <c r="A802" s="2"/>
-    </row>
-    <row r="803" spans="1:1">
-      <c r="A803" s="2"/>
-    </row>
-    <row r="804" spans="1:1">
-      <c r="A804" s="2"/>
-    </row>
-    <row r="805" spans="1:1">
-      <c r="A805" s="2"/>
-    </row>
-    <row r="806" spans="1:1">
-      <c r="A806" s="2"/>
-    </row>
-    <row r="807" spans="1:1">
-      <c r="A807" s="2"/>
-    </row>
-    <row r="808" spans="1:1">
-      <c r="A808" s="2"/>
-    </row>
-    <row r="809" spans="1:1">
-      <c r="A809" s="2"/>
-    </row>
-    <row r="810" spans="1:1">
-      <c r="A810" s="2"/>
-    </row>
-    <row r="811" spans="1:1">
-      <c r="A811" s="2"/>
-    </row>
-    <row r="812" spans="1:1">
-      <c r="A812" s="2"/>
-    </row>
-    <row r="813" spans="1:1">
-      <c r="A813" s="2"/>
-    </row>
-    <row r="814" spans="1:1">
-      <c r="A814" s="2"/>
-    </row>
-    <row r="815" spans="1:1">
-      <c r="A815" s="2"/>
-    </row>
-    <row r="816" spans="1:1">
-      <c r="A816" s="2"/>
-    </row>
-    <row r="817" spans="1:1">
-      <c r="A817" s="2"/>
-    </row>
-    <row r="818" spans="1:1">
-      <c r="A818" s="2"/>
-    </row>
-    <row r="819" spans="1:1">
-      <c r="A819" s="2"/>
-    </row>
-    <row r="820" spans="1:1">
-      <c r="A820" s="2"/>
-    </row>
-    <row r="821" spans="1:1">
-      <c r="A821" s="2"/>
-    </row>
-    <row r="822" spans="1:1">
-      <c r="A822" s="2"/>
-    </row>
-    <row r="823" spans="1:1">
-      <c r="A823" s="2"/>
-    </row>
-    <row r="824" spans="1:1">
-      <c r="A824" s="2"/>
-    </row>
-    <row r="825" spans="1:1">
-      <c r="A825" s="2"/>
-    </row>
-    <row r="826" spans="1:1">
-      <c r="A826" s="2"/>
-    </row>
-    <row r="827" spans="1:1">
-      <c r="A827" s="2"/>
-    </row>
-    <row r="828" spans="1:1">
-      <c r="A828" s="2"/>
-    </row>
-    <row r="829" spans="1:1">
-      <c r="A829" s="2"/>
-    </row>
-    <row r="830" spans="1:1">
-      <c r="A830" s="2"/>
-    </row>
-    <row r="831" spans="1:1">
-      <c r="A831" s="2"/>
-    </row>
-    <row r="832" spans="1:1">
-      <c r="A832" s="2"/>
-    </row>
-    <row r="833" spans="1:1">
-      <c r="A833" s="2"/>
-    </row>
-    <row r="834" spans="1:1">
-      <c r="A834" s="2"/>
-    </row>
-    <row r="835" spans="1:1">
-      <c r="A835" s="2"/>
-    </row>
-    <row r="836" spans="1:1">
-      <c r="A836" s="2"/>
-    </row>
-    <row r="837" spans="1:1">
-      <c r="A837" s="2"/>
-    </row>
-    <row r="838" spans="1:1">
-      <c r="A838" s="2"/>
-    </row>
-    <row r="839" spans="1:1">
-      <c r="A839" s="2"/>
-    </row>
-    <row r="840" spans="1:1">
-      <c r="A840" s="2"/>
-    </row>
-    <row r="841" spans="1:1">
-      <c r="A841" s="2"/>
-    </row>
-    <row r="842" spans="1:1">
-      <c r="A842" s="2"/>
-    </row>
-    <row r="843" spans="1:1">
-      <c r="A843" s="2"/>
-    </row>
-    <row r="844" spans="1:1">
-      <c r="A844" s="2"/>
-    </row>
-    <row r="845" spans="1:1">
-      <c r="A845" s="2"/>
-    </row>
-    <row r="846" spans="1:1">
-      <c r="A846" s="2"/>
-    </row>
-    <row r="847" spans="1:1">
-      <c r="A847" s="2"/>
-    </row>
-    <row r="848" spans="1:1">
-      <c r="A848" s="2"/>
-    </row>
-    <row r="849" spans="1:1">
-      <c r="A849" s="2"/>
-    </row>
-    <row r="850" spans="1:1">
-      <c r="A850" s="2"/>
-    </row>
-    <row r="851" spans="1:1">
-      <c r="A851" s="2"/>
-    </row>
-    <row r="852" spans="1:1">
-      <c r="A852" s="2"/>
-    </row>
-    <row r="853" spans="1:1">
-      <c r="A853" s="2"/>
-    </row>
-    <row r="854" spans="1:1">
-      <c r="A854" s="2"/>
-    </row>
-    <row r="855" spans="1:1">
-      <c r="A855" s="2"/>
-    </row>
-    <row r="856" spans="1:1">
-      <c r="A856" s="2"/>
-    </row>
-    <row r="857" spans="1:1">
-      <c r="A857" s="2"/>
-    </row>
-    <row r="858" spans="1:1">
-      <c r="A858" s="2"/>
-    </row>
-    <row r="859" spans="1:1">
-      <c r="A859" s="2"/>
-    </row>
-    <row r="860" spans="1:1">
-      <c r="A860" s="2"/>
-    </row>
-    <row r="861" spans="1:1">
-      <c r="A861" s="2"/>
-    </row>
-    <row r="862" spans="1:1">
-      <c r="A862" s="2"/>
-    </row>
-    <row r="863" spans="1:1">
-      <c r="A863" s="2"/>
-    </row>
-    <row r="864" spans="1:1">
-      <c r="A864" s="2"/>
-    </row>
-    <row r="865" spans="1:1">
-      <c r="A865" s="2"/>
-    </row>
-    <row r="866" spans="1:1">
-      <c r="A866" s="2"/>
-    </row>
-    <row r="867" spans="1:1">
-      <c r="A867" s="2"/>
-    </row>
-    <row r="868" spans="1:1">
-      <c r="A868" s="2"/>
-    </row>
-    <row r="869" spans="1:1">
-      <c r="A869" s="2"/>
-    </row>
-    <row r="870" spans="1:1">
-      <c r="A870" s="2"/>
-    </row>
-    <row r="871" spans="1:1">
-      <c r="A871" s="2"/>
-    </row>
-    <row r="872" spans="1:1">
-      <c r="A872" s="2"/>
-    </row>
-    <row r="873" spans="1:1">
-      <c r="A873" s="2"/>
-    </row>
-    <row r="874" spans="1:1">
-      <c r="A874" s="2"/>
-    </row>
-    <row r="875" spans="1:1">
-      <c r="A875" s="2"/>
-    </row>
-    <row r="876" spans="1:1">
-      <c r="A876" s="2"/>
-    </row>
-    <row r="877" spans="1:1">
-      <c r="A877" s="2"/>
-    </row>
-    <row r="878" spans="1:1">
-      <c r="A878" s="2"/>
-    </row>
-    <row r="879" spans="1:1">
-      <c r="A879" s="2"/>
-    </row>
-    <row r="880" spans="1:1">
-      <c r="A880" s="2"/>
-    </row>
-    <row r="881" spans="1:1">
-      <c r="A881" s="2"/>
-    </row>
-    <row r="882" spans="1:1">
-      <c r="A882" s="2"/>
-    </row>
-    <row r="883" spans="1:1">
-      <c r="A883" s="2"/>
-    </row>
-    <row r="884" spans="1:1">
-      <c r="A884" s="2"/>
-    </row>
-    <row r="885" spans="1:1">
-      <c r="A885" s="2"/>
-    </row>
-    <row r="886" spans="1:1">
-      <c r="A886" s="2"/>
-    </row>
-    <row r="887" spans="1:1">
-      <c r="A887" s="2"/>
-    </row>
-    <row r="888" spans="1:1">
-      <c r="A888" s="2"/>
-    </row>
-    <row r="889" spans="1:1">
-      <c r="A889" s="2"/>
-    </row>
-    <row r="890" spans="1:1">
-      <c r="A890" s="2"/>
-    </row>
-    <row r="891" spans="1:1">
-      <c r="A891" s="2"/>
-    </row>
-    <row r="892" spans="1:1">
-      <c r="A892" s="2"/>
-    </row>
-    <row r="893" spans="1:1">
-      <c r="A893" s="2"/>
-    </row>
-    <row r="894" spans="1:1">
-      <c r="A894" s="2"/>
-    </row>
-    <row r="895" spans="1:1">
-      <c r="A895" s="2"/>
-    </row>
-    <row r="896" spans="1:1">
-      <c r="A896" s="2"/>
-    </row>
-    <row r="897" spans="1:1">
-      <c r="A897" s="2"/>
-    </row>
-    <row r="898" spans="1:1">
-      <c r="A898" s="2"/>
-    </row>
-    <row r="899" spans="1:1">
-      <c r="A899" s="2"/>
-    </row>
-    <row r="900" spans="1:1">
-      <c r="A900" s="2"/>
-    </row>
-    <row r="901" spans="1:1">
-      <c r="A901" s="2"/>
-    </row>
-    <row r="902" spans="1:1">
-      <c r="A902" s="2"/>
-    </row>
-    <row r="903" spans="1:1">
-      <c r="A903" s="2"/>
-    </row>
-    <row r="904" spans="1:1">
-      <c r="A904" s="2"/>
-    </row>
-    <row r="905" spans="1:1">
-      <c r="A905" s="2"/>
-    </row>
-    <row r="906" spans="1:1">
-      <c r="A906" s="2"/>
-    </row>
-    <row r="907" spans="1:1">
-      <c r="A907" s="2"/>
-    </row>
-    <row r="908" spans="1:1">
-      <c r="A908" s="2"/>
-    </row>
-    <row r="909" spans="1:1">
-      <c r="A909" s="2"/>
-    </row>
-    <row r="910" spans="1:1">
-      <c r="A910" s="2"/>
-    </row>
-    <row r="911" spans="1:1">
-      <c r="A911" s="2"/>
-    </row>
-    <row r="912" spans="1:1">
-      <c r="A912" s="2"/>
-    </row>
-    <row r="913" spans="1:1">
-      <c r="A913" s="2"/>
-    </row>
-    <row r="914" spans="1:1">
-      <c r="A914" s="2"/>
-    </row>
-    <row r="915" spans="1:1">
-      <c r="A915" s="2"/>
-    </row>
-    <row r="916" spans="1:1">
-      <c r="A916" s="2"/>
-    </row>
-    <row r="917" spans="1:1">
-      <c r="A917" s="2"/>
-    </row>
-    <row r="918" spans="1:1">
-      <c r="A918" s="2"/>
-    </row>
-    <row r="919" spans="1:1">
-      <c r="A919" s="2"/>
-    </row>
-    <row r="920" spans="1:1">
-      <c r="A920" s="2"/>
-    </row>
-    <row r="921" spans="1:1">
-      <c r="A921" s="2"/>
-    </row>
-    <row r="922" spans="1:1">
-      <c r="A922" s="2"/>
-    </row>
-    <row r="923" spans="1:1">
-      <c r="A923" s="2"/>
-    </row>
-    <row r="924" spans="1:1">
-      <c r="A924" s="2"/>
-    </row>
-    <row r="925" spans="1:1">
-      <c r="A925" s="2"/>
-    </row>
-    <row r="926" spans="1:1">
-      <c r="A926" s="2"/>
-    </row>
-    <row r="927" spans="1:1">
-      <c r="A927" s="2"/>
-    </row>
-    <row r="928" spans="1:1">
-      <c r="A928" s="2"/>
-    </row>
-    <row r="929" spans="1:1">
-      <c r="A929" s="2"/>
-    </row>
-    <row r="930" spans="1:1">
-      <c r="A930" s="2"/>
-    </row>
-    <row r="931" spans="1:1">
-      <c r="A931" s="2"/>
-    </row>
-    <row r="932" spans="1:1">
-      <c r="A932" s="2"/>
-    </row>
-    <row r="933" spans="1:1">
-      <c r="A933" s="2"/>
-    </row>
-    <row r="934" spans="1:1">
-      <c r="A934" s="2"/>
-    </row>
-    <row r="935" spans="1:1">
-      <c r="A935" s="2"/>
-    </row>
-    <row r="936" spans="1:1">
-      <c r="A936" s="2"/>
-    </row>
-    <row r="937" spans="1:1">
-      <c r="A937" s="2"/>
-    </row>
-    <row r="938" spans="1:1">
-      <c r="A938" s="2"/>
-    </row>
-    <row r="939" spans="1:1">
-      <c r="A939" s="2"/>
-    </row>
-    <row r="940" spans="1:1">
-      <c r="A940" s="2"/>
-    </row>
-    <row r="941" spans="1:1">
-      <c r="A941" s="2"/>
-    </row>
-    <row r="942" spans="1:1">
-      <c r="A942" s="2"/>
-    </row>
-    <row r="943" spans="1:1">
-      <c r="A943" s="2"/>
-    </row>
-    <row r="944" spans="1:1">
-      <c r="A944" s="2"/>
-    </row>
-    <row r="945" spans="1:1">
-      <c r="A945" s="2"/>
-    </row>
-    <row r="946" spans="1:1">
-      <c r="A946" s="2"/>
-    </row>
-    <row r="947" spans="1:1">
-      <c r="A947" s="2"/>
-    </row>
-    <row r="948" spans="1:1">
-      <c r="A948" s="2"/>
-    </row>
-    <row r="949" spans="1:1">
-      <c r="A949" s="2"/>
-    </row>
-    <row r="950" spans="1:1">
-      <c r="A950" s="2"/>
-    </row>
-    <row r="951" spans="1:1">
-      <c r="A951" s="2"/>
-    </row>
-    <row r="952" spans="1:1">
-      <c r="A952" s="2"/>
-    </row>
-    <row r="953" spans="1:1">
-      <c r="A953" s="2"/>
-    </row>
-    <row r="954" spans="1:1">
-      <c r="A954" s="2"/>
-    </row>
-    <row r="955" spans="1:1">
-      <c r="A955" s="2"/>
-    </row>
-    <row r="956" spans="1:1">
-      <c r="A956" s="2"/>
-    </row>
-    <row r="957" spans="1:1">
-      <c r="A957" s="2"/>
-    </row>
-    <row r="958" spans="1:1">
-      <c r="A958" s="2"/>
-    </row>
-    <row r="959" spans="1:1">
-      <c r="A959" s="2"/>
-    </row>
-    <row r="960" spans="1:1">
-      <c r="A960" s="2"/>
-    </row>
-    <row r="961" spans="1:1">
-      <c r="A961" s="2"/>
-    </row>
-    <row r="962" spans="1:1">
-      <c r="A962" s="2"/>
-    </row>
-    <row r="963" spans="1:1">
-      <c r="A963" s="2"/>
-    </row>
-    <row r="964" spans="1:1">
-      <c r="A964" s="2"/>
-    </row>
-    <row r="965" spans="1:1">
-      <c r="A965" s="2"/>
-    </row>
-    <row r="966" spans="1:1">
-      <c r="A966" s="2"/>
-    </row>
-    <row r="967" spans="1:1">
-      <c r="A967" s="2"/>
-    </row>
-    <row r="968" spans="1:1">
-      <c r="A968" s="2"/>
-    </row>
-    <row r="969" spans="1:1">
-      <c r="A969" s="2"/>
-    </row>
-    <row r="970" spans="1:1">
-      <c r="A970" s="2"/>
-    </row>
-    <row r="971" spans="1:1">
-      <c r="A971" s="2"/>
-    </row>
-    <row r="972" spans="1:1">
-      <c r="A972" s="2"/>
-    </row>
-    <row r="973" spans="1:1">
-      <c r="A973" s="2"/>
-    </row>
-    <row r="974" spans="1:1">
-      <c r="A974" s="2"/>
-    </row>
-    <row r="975" spans="1:1">
-      <c r="A975" s="2"/>
-    </row>
-    <row r="976" spans="1:1">
-      <c r="A976" s="2"/>
-    </row>
-    <row r="977" spans="1:1">
-      <c r="A977" s="2"/>
+      <c r="D93" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="C57 C64" name="区域1_2_1_2_1_1"/>
-    <protectedRange sqref="C62 C87" name="区域1_2_1_1_1"/>
+    <protectedRange sqref="C64 C57" name="区域1_2_1_2_1_1"/>
+    <protectedRange sqref="C87 C62" name="区域1_2_1_1_1"/>
     <protectedRange sqref="C89" name="区域1_6_1_1_1"/>
   </protectedRanges>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/docs/线束表转化.xlsx
+++ b/docs/线束表转化.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28657B10-2254-4FC8-82B0-DAA9CB203776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E1BBAF-9421-4CB5-89BB-7524C460AAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="线束表转化" sheetId="2" r:id="rId1"/>
@@ -2309,7 +2309,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>热缩管_D9,5/4,8</t>
+    <t>热缩管_Φ19.0/9.5mm_Black</t>
   </si>
 </sst>
 </file>
@@ -2828,6 +2828,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2854,18 +2866,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -5016,8 +5016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6028,11 +6028,11 @@
       <c r="C33" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="66" t="s">
+      <c r="D33" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="60"/>
       <c r="G33" s="37">
         <v>1</v>
       </c>
@@ -6054,11 +6054,11 @@
       <c r="C34" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="57" t="s">
+      <c r="D34" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="58"/>
-      <c r="F34" s="59"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="63"/>
       <c r="G34" s="52" t="s">
         <v>534</v>
       </c>
@@ -6074,18 +6074,18 @@
       <c r="A35" s="36">
         <v>2</v>
       </c>
-      <c r="B35" s="15" t="str">
-        <f>VLOOKUP(D35,线束辅料!C17:D21,2,FALSE)</f>
-        <v>DFB00046722</v>
+      <c r="B35" s="15" t="e">
+        <f>VLOOKUP(D35,线束辅料!D17:D21,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="C35" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="57" t="s">
+      <c r="D35" s="61" t="s">
         <v>539</v>
       </c>
-      <c r="E35" s="58"/>
-      <c r="F35" s="59"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="63"/>
       <c r="G35" s="19">
         <v>0.04</v>
       </c>
@@ -6107,11 +6107,11 @@
       <c r="C36" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="57" t="s">
+      <c r="D36" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="E36" s="58"/>
-      <c r="F36" s="59"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="63"/>
       <c r="G36" s="38">
         <v>1</v>
       </c>
@@ -6127,11 +6127,11 @@
       <c r="A37" s="36"/>
       <c r="B37" s="14"/>
       <c r="C37" s="36"/>
-      <c r="D37" s="60" t="s">
+      <c r="D37" s="64" t="s">
         <v>535</v>
       </c>
-      <c r="E37" s="61"/>
-      <c r="F37" s="62"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="66"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
       <c r="I37" s="17"/>
@@ -6143,9 +6143,9 @@
       <c r="A38" s="36"/>
       <c r="B38" s="14"/>
       <c r="C38" s="36"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="65"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="69"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
       <c r="I38" s="17"/>
@@ -6163,11 +6163,11 @@
       <c r="C39" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="57" t="s">
+      <c r="D39" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="58"/>
-      <c r="F39" s="59"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="63"/>
       <c r="G39" s="38">
         <v>1</v>
       </c>
@@ -6189,11 +6189,11 @@
       <c r="C40" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="58"/>
-      <c r="F40" s="59"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="63"/>
       <c r="G40" s="20" t="s">
         <v>291</v>
       </c>
@@ -6216,11 +6216,11 @@
       <c r="C41" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="57" t="s">
+      <c r="D41" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="E41" s="58"/>
-      <c r="F41" s="59"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="63"/>
       <c r="G41" s="38">
         <v>1</v>
       </c>
@@ -6242,11 +6242,11 @@
       <c r="C42" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="57" t="s">
+      <c r="D42" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="58"/>
-      <c r="F42" s="59"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="63"/>
       <c r="G42" s="38">
         <v>1</v>
       </c>
@@ -6262,11 +6262,11 @@
       <c r="A43" s="36"/>
       <c r="B43" s="14"/>
       <c r="C43" s="36"/>
-      <c r="D43" s="60" t="s">
+      <c r="D43" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
       <c r="I43" s="17"/>
@@ -6278,9 +6278,9 @@
       <c r="A44" s="36"/>
       <c r="B44" s="14"/>
       <c r="C44" s="36"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
       <c r="I44" s="17"/>
@@ -6298,11 +6298,11 @@
       <c r="C45" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="57" t="s">
+      <c r="D45" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="E45" s="58"/>
-      <c r="F45" s="59"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="63"/>
       <c r="G45" s="19">
         <v>0.04</v>
       </c>
@@ -6324,11 +6324,11 @@
       <c r="C46" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="57" t="s">
+      <c r="D46" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="E46" s="58"/>
-      <c r="F46" s="59"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="63"/>
       <c r="G46" s="52">
         <v>3</v>
       </c>
@@ -6426,11 +6426,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D39:F39"/>
     <mergeCell ref="D45:F45"/>
     <mergeCell ref="D46:F46"/>
     <mergeCell ref="D37:F38"/>
@@ -6438,6 +6433,11 @@
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="D42:F42"/>
     <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D39:F39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F4:F6">
@@ -6633,7 +6633,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{51871BBE-8C39-4CB3-966E-99478194D0A3}">
           <x14:formula1>
-            <xm:f>线束辅料!$C$17:$C$21</xm:f>
+            <xm:f>线束辅料!$D$17:$D$21</xm:f>
           </x14:formula1>
           <xm:sqref>D35:F35</xm:sqref>
         </x14:dataValidation>
@@ -6648,14 +6648,14 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="3" max="3" width="53.25" customWidth="1"/>
-    <col min="4" max="4" width="28.75" customWidth="1"/>
+    <col min="3" max="3" width="28.75" customWidth="1"/>
+    <col min="4" max="4" width="53.25" customWidth="1"/>
     <col min="5" max="5" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6673,10 +6673,10 @@
         <v>298</v>
       </c>
       <c r="C2" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>296</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>295</v>
       </c>
       <c r="E2" s="45" t="s">
         <v>305</v>
@@ -6689,11 +6689,11 @@
       <c r="B3" s="41">
         <v>16</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="43" t="s">
         <v>79</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>78</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>43</v>
@@ -6706,11 +6706,11 @@
       <c r="B4" s="25">
         <v>16</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>83</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>82</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>43</v>
@@ -6726,11 +6726,11 @@
       <c r="B5" s="25">
         <v>25</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>85</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>84</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>43</v>
@@ -6746,11 +6746,11 @@
       <c r="B6" s="25">
         <v>50</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="28" t="s">
         <v>87</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>86</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>43</v>
@@ -6763,11 +6763,11 @@
       <c r="B7" s="25">
         <v>50</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>89</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>88</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>43</v>
@@ -6783,11 +6783,11 @@
       <c r="B8" s="47" t="s">
         <v>319</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="49" t="s">
         <v>91</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>90</v>
       </c>
       <c r="E8" s="49" t="s">
         <v>43</v>
@@ -6806,11 +6806,11 @@
       <c r="B9" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="49" t="s">
         <v>94</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>93</v>
       </c>
       <c r="E9" s="49" t="s">
         <v>43</v>
@@ -6826,11 +6826,11 @@
       <c r="B10" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="49" t="s">
         <v>97</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>96</v>
       </c>
       <c r="E10" s="49" t="s">
         <v>43</v>
@@ -6846,11 +6846,11 @@
       <c r="B11" s="25">
         <v>0.34</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>70</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>306</v>
@@ -6863,11 +6863,11 @@
       <c r="B12" s="25">
         <v>0.5</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="26" t="s">
         <v>72</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>43</v>
@@ -6880,11 +6880,11 @@
       <c r="B13" s="25">
         <v>1</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="15">
+        <v>12024613</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>73</v>
-      </c>
-      <c r="D13" s="15">
-        <v>12024613</v>
       </c>
       <c r="E13" s="26" t="s">
         <v>43</v>
@@ -6897,11 +6897,11 @@
       <c r="B14" s="25">
         <v>1.5</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>75</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>43</v>
@@ -6917,11 +6917,11 @@
       <c r="B15" s="25">
         <v>2.5</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>77</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>43</v>
@@ -6934,11 +6934,11 @@
       <c r="B16" s="25">
         <v>16</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>81</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>80</v>
       </c>
       <c r="E16" s="26" t="s">
         <v>43</v>
@@ -6952,11 +6952,11 @@
       <c r="B17" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="26" t="s">
         <v>101</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>100</v>
       </c>
       <c r="E17" s="26" t="s">
         <v>311</v>
@@ -6978,11 +6978,11 @@
       <c r="B18" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>104</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="E18" s="26" t="s">
         <v>311</v>
@@ -6995,11 +6995,11 @@
       <c r="B19" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="26" t="s">
         <v>107</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>106</v>
       </c>
       <c r="E19" s="26" t="s">
         <v>311</v>
@@ -7012,11 +7012,11 @@
       <c r="B20" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="26" t="s">
         <v>110</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>109</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>311</v>
@@ -7029,11 +7029,11 @@
       <c r="B21" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>113</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>112</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>311</v>
@@ -7046,11 +7046,11 @@
       <c r="B22" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="26" t="s">
         <v>121</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>120</v>
       </c>
       <c r="E22" s="26" t="s">
         <v>43</v>
@@ -7072,11 +7072,11 @@
       <c r="B23" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="26" t="s">
         <v>124</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>123</v>
       </c>
       <c r="E23" s="26" t="s">
         <v>43</v>
@@ -7092,11 +7092,11 @@
       <c r="B24" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="26" t="s">
         <v>59</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>126</v>
       </c>
       <c r="E24" s="26" t="s">
         <v>43</v>
@@ -7109,10 +7109,10 @@
       <c r="B25" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="54"/>
+      <c r="D25" s="49" t="s">
         <v>326</v>
       </c>
-      <c r="D25" s="54"/>
       <c r="E25" s="26" t="s">
         <v>327</v>
       </c>
@@ -7124,11 +7124,11 @@
       <c r="B26" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>116</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>49</v>
       </c>
       <c r="E26" s="26" t="s">
         <v>43</v>
@@ -7144,11 +7144,11 @@
       <c r="B27" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>515</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>118</v>
       </c>
       <c r="E27" s="26" t="s">
         <v>43</v>
@@ -7168,8 +7168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487186A3-9D00-4197-A303-5F818918C0BB}">
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7625,7 +7625,7 @@
       <c r="E20" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="F20" s="69" t="s">
+      <c r="F20" s="57" t="s">
         <v>538</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -7648,7 +7648,7 @@
       <c r="E21" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="F21" s="69" t="s">
+      <c r="F21" s="57" t="s">
         <v>538</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -7740,7 +7740,7 @@
       <c r="E25" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="F25" s="69" t="s">
+      <c r="F25" s="57" t="s">
         <v>538</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -8346,7 +8346,7 @@
       <c r="E51" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="F51" s="69" t="s">
+      <c r="F51" s="57" t="s">
         <v>538</v>
       </c>
       <c r="G51" s="2" t="s">
